--- a/Competition1_raw_data_fixed.xlsx
+++ b/Competition1_raw_data_fixed.xlsx
@@ -4270,16 +4270,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4552,11 +4543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V683"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4633,7 +4623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4701,7 +4691,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4769,7 +4759,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4837,7 +4827,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4905,7 +4895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4973,7 +4963,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5041,7 +5031,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5109,7 +5099,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5165,7 +5155,7 @@
         <v>276</v>
       </c>
       <c r="S9">
-        <v>-1</v>
+        <v>624</v>
       </c>
       <c r="T9">
         <v>55</v>
@@ -5177,7 +5167,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -5245,7 +5235,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -5381,7 +5371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -5449,7 +5439,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -5517,7 +5507,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -5585,7 +5575,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -5653,7 +5643,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -5721,7 +5711,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -5789,7 +5779,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -5857,7 +5847,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -5925,7 +5915,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -5993,7 +5983,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -6061,7 +6051,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -6129,7 +6119,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -6197,7 +6187,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -6265,7 +6255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -6333,7 +6323,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -6401,7 +6391,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -6469,7 +6459,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -6537,7 +6527,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -6605,7 +6595,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -6673,7 +6663,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -6741,7 +6731,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -6809,7 +6799,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -6877,7 +6867,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -6945,7 +6935,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -7013,7 +7003,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -7081,7 +7071,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -7149,7 +7139,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:22" hidden="1">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -7217,7 +7207,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -7285,7 +7275,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -7353,7 +7343,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -7421,7 +7411,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -7489,7 +7479,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -7557,7 +7547,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -7625,7 +7615,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:22" hidden="1">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>104</v>
       </c>
@@ -7693,7 +7683,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -7761,7 +7751,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>108</v>
       </c>
@@ -7829,7 +7819,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -7897,7 +7887,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:22" hidden="1">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>112</v>
       </c>
@@ -7965,7 +7955,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="51" spans="1:22" hidden="1">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -8033,7 +8023,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:22" hidden="1">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -8101,7 +8091,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:22" hidden="1">
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -8169,7 +8159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:22" hidden="1">
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -8237,7 +8227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:22" hidden="1">
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -8305,7 +8295,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="56" spans="1:22" hidden="1">
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -8373,7 +8363,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="57" spans="1:22" hidden="1">
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -8441,7 +8431,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:22" hidden="1">
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -8509,7 +8499,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1">
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -8577,7 +8567,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -8645,7 +8635,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="61" spans="1:22" hidden="1">
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -8713,7 +8703,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -8781,7 +8771,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1">
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -8849,7 +8839,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:22" hidden="1">
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -8917,7 +8907,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="65" spans="1:22" hidden="1">
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -8985,7 +8975,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:22" hidden="1">
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -9053,7 +9043,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1">
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -9121,7 +9111,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1">
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -9189,7 +9179,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1">
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
         <v>150</v>
       </c>
@@ -9257,7 +9247,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:22" hidden="1">
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -9325,7 +9315,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1">
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
         <v>154</v>
       </c>
@@ -9393,7 +9383,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:22" hidden="1">
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
         <v>156</v>
       </c>
@@ -9461,7 +9451,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:22" hidden="1">
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -9529,7 +9519,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:22" hidden="1">
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
         <v>160</v>
       </c>
@@ -9597,7 +9587,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:22" hidden="1">
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
         <v>162</v>
       </c>
@@ -9665,7 +9655,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:22" hidden="1">
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -9733,7 +9723,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:22" hidden="1">
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
         <v>166</v>
       </c>
@@ -9801,7 +9791,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:22" hidden="1">
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
         <v>168</v>
       </c>
@@ -9869,7 +9859,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:22" hidden="1">
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
         <v>170</v>
       </c>
@@ -9937,7 +9927,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="1:22" hidden="1">
+    <row r="80" spans="1:22">
       <c r="A80" t="s">
         <v>172</v>
       </c>
@@ -10005,7 +9995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:22" hidden="1">
+    <row r="81" spans="1:22">
       <c r="A81" t="s">
         <v>174</v>
       </c>
@@ -10073,7 +10063,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:22" hidden="1">
+    <row r="82" spans="1:22">
       <c r="A82" t="s">
         <v>176</v>
       </c>
@@ -10141,7 +10131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:22" hidden="1">
+    <row r="83" spans="1:22">
       <c r="A83" t="s">
         <v>178</v>
       </c>
@@ -10209,7 +10199,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1">
+    <row r="84" spans="1:22">
       <c r="A84" t="s">
         <v>180</v>
       </c>
@@ -10277,7 +10267,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:22" hidden="1">
+    <row r="85" spans="1:22">
       <c r="A85" t="s">
         <v>182</v>
       </c>
@@ -10345,7 +10335,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:22" hidden="1">
+    <row r="86" spans="1:22">
       <c r="A86" t="s">
         <v>184</v>
       </c>
@@ -10413,7 +10403,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="87" spans="1:22" hidden="1">
+    <row r="87" spans="1:22">
       <c r="A87" t="s">
         <v>186</v>
       </c>
@@ -10549,7 +10539,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:22" hidden="1">
+    <row r="89" spans="1:22">
       <c r="A89" t="s">
         <v>188</v>
       </c>
@@ -10617,7 +10607,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1">
+    <row r="90" spans="1:22">
       <c r="A90" t="s">
         <v>190</v>
       </c>
@@ -10685,7 +10675,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:22" hidden="1">
+    <row r="91" spans="1:22">
       <c r="A91" t="s">
         <v>192</v>
       </c>
@@ -10753,7 +10743,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:22" hidden="1">
+    <row r="92" spans="1:22">
       <c r="A92" t="s">
         <v>194</v>
       </c>
@@ -10821,7 +10811,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:22" hidden="1">
+    <row r="93" spans="1:22">
       <c r="A93" t="s">
         <v>196</v>
       </c>
@@ -10889,7 +10879,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:22" hidden="1">
+    <row r="94" spans="1:22">
       <c r="A94" t="s">
         <v>198</v>
       </c>
@@ -10957,7 +10947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:22" hidden="1">
+    <row r="95" spans="1:22">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -11025,7 +11015,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="96" spans="1:22" hidden="1">
+    <row r="96" spans="1:22">
       <c r="A96" t="s">
         <v>202</v>
       </c>
@@ -11093,7 +11083,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:22" hidden="1">
+    <row r="97" spans="1:22">
       <c r="A97" t="s">
         <v>204</v>
       </c>
@@ -11161,7 +11151,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="1:22" hidden="1">
+    <row r="98" spans="1:22">
       <c r="A98" t="s">
         <v>206</v>
       </c>
@@ -11229,7 +11219,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:22" hidden="1">
+    <row r="99" spans="1:22">
       <c r="A99" t="s">
         <v>208</v>
       </c>
@@ -11297,7 +11287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:22" hidden="1">
+    <row r="100" spans="1:22">
       <c r="A100" t="s">
         <v>210</v>
       </c>
@@ -11365,7 +11355,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="1:22" hidden="1">
+    <row r="101" spans="1:22">
       <c r="A101" t="s">
         <v>212</v>
       </c>
@@ -11433,7 +11423,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:22" hidden="1">
+    <row r="102" spans="1:22">
       <c r="A102" t="s">
         <v>214</v>
       </c>
@@ -11501,7 +11491,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="103" spans="1:22" hidden="1">
+    <row r="103" spans="1:22">
       <c r="A103" t="s">
         <v>216</v>
       </c>
@@ -11569,7 +11559,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:22" hidden="1">
+    <row r="104" spans="1:22">
       <c r="A104" t="s">
         <v>218</v>
       </c>
@@ -11637,7 +11627,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:22" hidden="1">
+    <row r="105" spans="1:22">
       <c r="A105" t="s">
         <v>220</v>
       </c>
@@ -11705,7 +11695,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:22" hidden="1">
+    <row r="106" spans="1:22">
       <c r="A106" t="s">
         <v>222</v>
       </c>
@@ -11773,7 +11763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:22" hidden="1">
+    <row r="107" spans="1:22">
       <c r="A107" t="s">
         <v>224</v>
       </c>
@@ -11841,7 +11831,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:22" hidden="1">
+    <row r="108" spans="1:22">
       <c r="A108" t="s">
         <v>226</v>
       </c>
@@ -11909,7 +11899,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:22" hidden="1">
+    <row r="109" spans="1:22">
       <c r="A109" t="s">
         <v>228</v>
       </c>
@@ -11977,7 +11967,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="110" spans="1:22" hidden="1">
+    <row r="110" spans="1:22">
       <c r="A110" t="s">
         <v>230</v>
       </c>
@@ -12045,7 +12035,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="111" spans="1:22" hidden="1">
+    <row r="111" spans="1:22">
       <c r="A111" t="s">
         <v>232</v>
       </c>
@@ -12113,7 +12103,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:22" hidden="1">
+    <row r="112" spans="1:22">
       <c r="A112" t="s">
         <v>234</v>
       </c>
@@ -12181,7 +12171,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:22" hidden="1">
+    <row r="113" spans="1:22">
       <c r="A113" t="s">
         <v>236</v>
       </c>
@@ -12249,7 +12239,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:22" hidden="1">
+    <row r="114" spans="1:22">
       <c r="A114" t="s">
         <v>238</v>
       </c>
@@ -12317,7 +12307,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:22" hidden="1">
+    <row r="115" spans="1:22">
       <c r="A115" t="s">
         <v>240</v>
       </c>
@@ -12385,7 +12375,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:22" hidden="1">
+    <row r="116" spans="1:22">
       <c r="A116" t="s">
         <v>242</v>
       </c>
@@ -12453,7 +12443,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="1:22" hidden="1">
+    <row r="117" spans="1:22">
       <c r="A117" t="s">
         <v>1321</v>
       </c>
@@ -12521,7 +12511,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:22" hidden="1">
+    <row r="118" spans="1:22">
       <c r="A118" t="s">
         <v>244</v>
       </c>
@@ -12589,7 +12579,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:22" hidden="1">
+    <row r="119" spans="1:22">
       <c r="A119" t="s">
         <v>246</v>
       </c>
@@ -12657,7 +12647,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="120" spans="1:22" hidden="1">
+    <row r="120" spans="1:22">
       <c r="A120" t="s">
         <v>248</v>
       </c>
@@ -12725,7 +12715,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="121" spans="1:22" hidden="1">
+    <row r="121" spans="1:22">
       <c r="A121" t="s">
         <v>250</v>
       </c>
@@ -12793,7 +12783,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:22" hidden="1">
+    <row r="122" spans="1:22">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -12861,7 +12851,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="123" spans="1:22" hidden="1">
+    <row r="123" spans="1:22">
       <c r="A123" t="s">
         <v>254</v>
       </c>
@@ -12929,7 +12919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:22" hidden="1">
+    <row r="124" spans="1:22">
       <c r="A124" t="s">
         <v>256</v>
       </c>
@@ -12997,7 +12987,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:22" hidden="1">
+    <row r="125" spans="1:22">
       <c r="A125" t="s">
         <v>1319</v>
       </c>
@@ -13065,7 +13055,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="1:22" hidden="1">
+    <row r="126" spans="1:22">
       <c r="A126" t="s">
         <v>258</v>
       </c>
@@ -13133,7 +13123,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:22" hidden="1">
+    <row r="127" spans="1:22">
       <c r="A127" t="s">
         <v>260</v>
       </c>
@@ -13201,7 +13191,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="128" spans="1:22" hidden="1">
+    <row r="128" spans="1:22">
       <c r="A128" t="s">
         <v>262</v>
       </c>
@@ -13269,7 +13259,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:22" hidden="1">
+    <row r="129" spans="1:22">
       <c r="A129" t="s">
         <v>264</v>
       </c>
@@ -13337,7 +13327,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:22" hidden="1">
+    <row r="130" spans="1:22">
       <c r="A130" t="s">
         <v>266</v>
       </c>
@@ -13405,7 +13395,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="131" spans="1:22" hidden="1">
+    <row r="131" spans="1:22">
       <c r="A131" t="s">
         <v>268</v>
       </c>
@@ -13473,7 +13463,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="132" spans="1:22" hidden="1">
+    <row r="132" spans="1:22">
       <c r="A132" t="s">
         <v>270</v>
       </c>
@@ -13541,7 +13531,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="133" spans="1:22" hidden="1">
+    <row r="133" spans="1:22">
       <c r="A133" t="s">
         <v>272</v>
       </c>
@@ -13609,7 +13599,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="134" spans="1:22" hidden="1">
+    <row r="134" spans="1:22">
       <c r="A134" t="s">
         <v>274</v>
       </c>
@@ -13677,7 +13667,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:22" hidden="1">
+    <row r="135" spans="1:22">
       <c r="A135" t="s">
         <v>276</v>
       </c>
@@ -13745,7 +13735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:22" hidden="1">
+    <row r="136" spans="1:22">
       <c r="A136" t="s">
         <v>278</v>
       </c>
@@ -13804,7 +13794,7 @@
         <v>643</v>
       </c>
       <c r="T136">
-        <v>-1</v>
+        <v>60</v>
       </c>
       <c r="U136">
         <v>97</v>
@@ -13813,7 +13803,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:22" hidden="1">
+    <row r="137" spans="1:22">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -13881,7 +13871,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:22" hidden="1">
+    <row r="138" spans="1:22">
       <c r="A138" t="s">
         <v>282</v>
       </c>
@@ -13949,7 +13939,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="139" spans="1:22" hidden="1">
+    <row r="139" spans="1:22">
       <c r="A139" t="s">
         <v>284</v>
       </c>
@@ -14017,7 +14007,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="140" spans="1:22" hidden="1">
+    <row r="140" spans="1:22">
       <c r="A140" t="s">
         <v>286</v>
       </c>
@@ -14085,7 +14075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:22" hidden="1">
+    <row r="141" spans="1:22">
       <c r="A141" t="s">
         <v>288</v>
       </c>
@@ -14153,7 +14143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="142" spans="1:22" hidden="1">
+    <row r="142" spans="1:22">
       <c r="A142" t="s">
         <v>290</v>
       </c>
@@ -14221,7 +14211,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="143" spans="1:22" hidden="1">
+    <row r="143" spans="1:22">
       <c r="A143" t="s">
         <v>292</v>
       </c>
@@ -14289,7 +14279,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="144" spans="1:22" hidden="1">
+    <row r="144" spans="1:22">
       <c r="A144" t="s">
         <v>294</v>
       </c>
@@ -14357,7 +14347,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="145" spans="1:22" hidden="1">
+    <row r="145" spans="1:22">
       <c r="A145" t="s">
         <v>296</v>
       </c>
@@ -14425,7 +14415,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="146" spans="1:22" hidden="1">
+    <row r="146" spans="1:22">
       <c r="A146" t="s">
         <v>298</v>
       </c>
@@ -14493,7 +14483,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:22" hidden="1">
+    <row r="147" spans="1:22">
       <c r="A147" t="s">
         <v>300</v>
       </c>
@@ -14561,7 +14551,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="148" spans="1:22" hidden="1">
+    <row r="148" spans="1:22">
       <c r="A148" t="s">
         <v>302</v>
       </c>
@@ -14629,7 +14619,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="149" spans="1:22" hidden="1">
+    <row r="149" spans="1:22">
       <c r="A149" t="s">
         <v>304</v>
       </c>
@@ -14697,7 +14687,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="150" spans="1:22" hidden="1">
+    <row r="150" spans="1:22">
       <c r="A150" t="s">
         <v>306</v>
       </c>
@@ -14765,7 +14755,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="151" spans="1:22" hidden="1">
+    <row r="151" spans="1:22">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -14833,7 +14823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:22" hidden="1">
+    <row r="152" spans="1:22">
       <c r="A152" t="s">
         <v>310</v>
       </c>
@@ -14901,7 +14891,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:22" hidden="1">
+    <row r="153" spans="1:22">
       <c r="A153" t="s">
         <v>312</v>
       </c>
@@ -14969,7 +14959,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="154" spans="1:22" hidden="1">
+    <row r="154" spans="1:22">
       <c r="A154" t="s">
         <v>314</v>
       </c>
@@ -15037,7 +15027,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="155" spans="1:22" hidden="1">
+    <row r="155" spans="1:22">
       <c r="A155" t="s">
         <v>316</v>
       </c>
@@ -15105,7 +15095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="156" spans="1:22" hidden="1">
+    <row r="156" spans="1:22">
       <c r="A156" t="s">
         <v>318</v>
       </c>
@@ -15173,7 +15163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:22" hidden="1">
+    <row r="157" spans="1:22">
       <c r="A157" t="s">
         <v>320</v>
       </c>
@@ -15241,7 +15231,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="158" spans="1:22" hidden="1">
+    <row r="158" spans="1:22">
       <c r="A158" t="s">
         <v>322</v>
       </c>
@@ -15309,7 +15299,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="159" spans="1:22" hidden="1">
+    <row r="159" spans="1:22">
       <c r="A159" t="s">
         <v>324</v>
       </c>
@@ -15377,7 +15367,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="160" spans="1:22" hidden="1">
+    <row r="160" spans="1:22">
       <c r="A160" t="s">
         <v>326</v>
       </c>
@@ -15445,7 +15435,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="161" spans="1:22" hidden="1">
+    <row r="161" spans="1:22">
       <c r="A161" t="s">
         <v>328</v>
       </c>
@@ -15513,7 +15503,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="162" spans="1:22" hidden="1">
+    <row r="162" spans="1:22">
       <c r="A162" t="s">
         <v>330</v>
       </c>
@@ -15581,7 +15571,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="163" spans="1:22" hidden="1">
+    <row r="163" spans="1:22">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -15649,7 +15639,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="164" spans="1:22" hidden="1">
+    <row r="164" spans="1:22">
       <c r="A164" t="s">
         <v>334</v>
       </c>
@@ -15717,7 +15707,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="165" spans="1:22" hidden="1">
+    <row r="165" spans="1:22">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -15785,7 +15775,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="166" spans="1:22" hidden="1">
+    <row r="166" spans="1:22">
       <c r="A166" t="s">
         <v>338</v>
       </c>
@@ -15853,7 +15843,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="167" spans="1:22" hidden="1">
+    <row r="167" spans="1:22">
       <c r="A167" t="s">
         <v>340</v>
       </c>
@@ -15921,7 +15911,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="168" spans="1:22" hidden="1">
+    <row r="168" spans="1:22">
       <c r="A168" t="s">
         <v>342</v>
       </c>
@@ -15989,7 +15979,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="169" spans="1:22" hidden="1">
+    <row r="169" spans="1:22">
       <c r="A169" t="s">
         <v>344</v>
       </c>
@@ -16057,7 +16047,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="170" spans="1:22" hidden="1">
+    <row r="170" spans="1:22">
       <c r="A170" t="s">
         <v>346</v>
       </c>
@@ -16125,7 +16115,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="171" spans="1:22" hidden="1">
+    <row r="171" spans="1:22">
       <c r="A171" t="s">
         <v>348</v>
       </c>
@@ -16193,7 +16183,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="172" spans="1:22" hidden="1">
+    <row r="172" spans="1:22">
       <c r="A172" t="s">
         <v>350</v>
       </c>
@@ -16261,7 +16251,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="173" spans="1:22" hidden="1">
+    <row r="173" spans="1:22">
       <c r="A173" t="s">
         <v>352</v>
       </c>
@@ -16329,7 +16319,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="174" spans="1:22" hidden="1">
+    <row r="174" spans="1:22">
       <c r="A174" t="s">
         <v>354</v>
       </c>
@@ -16397,7 +16387,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="175" spans="1:22" hidden="1">
+    <row r="175" spans="1:22">
       <c r="A175" t="s">
         <v>356</v>
       </c>
@@ -16533,7 +16523,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="177" spans="1:22" hidden="1">
+    <row r="177" spans="1:22">
       <c r="A177" t="s">
         <v>360</v>
       </c>
@@ -16601,7 +16591,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="178" spans="1:22" hidden="1">
+    <row r="178" spans="1:22">
       <c r="A178" t="s">
         <v>362</v>
       </c>
@@ -16669,7 +16659,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="179" spans="1:22" hidden="1">
+    <row r="179" spans="1:22">
       <c r="A179" t="s">
         <v>364</v>
       </c>
@@ -16737,7 +16727,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="180" spans="1:22" hidden="1">
+    <row r="180" spans="1:22">
       <c r="A180" t="s">
         <v>366</v>
       </c>
@@ -16805,7 +16795,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="181" spans="1:22" hidden="1">
+    <row r="181" spans="1:22">
       <c r="A181" t="s">
         <v>368</v>
       </c>
@@ -16873,7 +16863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="1:22" hidden="1">
+    <row r="182" spans="1:22">
       <c r="A182" t="s">
         <v>370</v>
       </c>
@@ -16941,7 +16931,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="183" spans="1:22" hidden="1">
+    <row r="183" spans="1:22">
       <c r="A183" t="s">
         <v>372</v>
       </c>
@@ -17009,7 +16999,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="184" spans="1:22" hidden="1">
+    <row r="184" spans="1:22">
       <c r="A184" t="s">
         <v>374</v>
       </c>
@@ -17077,7 +17067,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="185" spans="1:22" hidden="1">
+    <row r="185" spans="1:22">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -17145,7 +17135,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="186" spans="1:22" hidden="1">
+    <row r="186" spans="1:22">
       <c r="A186" t="s">
         <v>378</v>
       </c>
@@ -17213,7 +17203,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="187" spans="1:22" hidden="1">
+    <row r="187" spans="1:22">
       <c r="A187" t="s">
         <v>380</v>
       </c>
@@ -17281,7 +17271,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="188" spans="1:22" hidden="1">
+    <row r="188" spans="1:22">
       <c r="A188" t="s">
         <v>382</v>
       </c>
@@ -17417,7 +17407,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="190" spans="1:22" hidden="1">
+    <row r="190" spans="1:22">
       <c r="A190" t="s">
         <v>386</v>
       </c>
@@ -17485,7 +17475,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="191" spans="1:22" hidden="1">
+    <row r="191" spans="1:22">
       <c r="A191" t="s">
         <v>388</v>
       </c>
@@ -17553,7 +17543,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="1:22" hidden="1">
+    <row r="192" spans="1:22">
       <c r="A192" t="s">
         <v>390</v>
       </c>
@@ -17621,7 +17611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="193" spans="1:22" hidden="1">
+    <row r="193" spans="1:22">
       <c r="A193" t="s">
         <v>392</v>
       </c>
@@ -17689,7 +17679,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="194" spans="1:22" hidden="1">
+    <row r="194" spans="1:22">
       <c r="A194" t="s">
         <v>394</v>
       </c>
@@ -17757,7 +17747,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="195" spans="1:22" hidden="1">
+    <row r="195" spans="1:22">
       <c r="A195" t="s">
         <v>396</v>
       </c>
@@ -17825,7 +17815,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="196" spans="1:22" hidden="1">
+    <row r="196" spans="1:22">
       <c r="A196" t="s">
         <v>398</v>
       </c>
@@ -17893,7 +17883,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:22" hidden="1">
+    <row r="197" spans="1:22">
       <c r="A197" t="s">
         <v>400</v>
       </c>
@@ -17961,7 +17951,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:22" hidden="1">
+    <row r="198" spans="1:22">
       <c r="A198" t="s">
         <v>402</v>
       </c>
@@ -18029,7 +18019,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="199" spans="1:22" hidden="1">
+    <row r="199" spans="1:22">
       <c r="A199" t="s">
         <v>404</v>
       </c>
@@ -18097,7 +18087,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="200" spans="1:22" hidden="1">
+    <row r="200" spans="1:22">
       <c r="A200" t="s">
         <v>406</v>
       </c>
@@ -18165,7 +18155,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="201" spans="1:22" hidden="1">
+    <row r="201" spans="1:22">
       <c r="A201" t="s">
         <v>408</v>
       </c>
@@ -18233,7 +18223,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="202" spans="1:22" hidden="1">
+    <row r="202" spans="1:22">
       <c r="A202" t="s">
         <v>410</v>
       </c>
@@ -18301,7 +18291,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="203" spans="1:22" hidden="1">
+    <row r="203" spans="1:22">
       <c r="A203" t="s">
         <v>412</v>
       </c>
@@ -18369,7 +18359,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="204" spans="1:22" hidden="1">
+    <row r="204" spans="1:22">
       <c r="A204" t="s">
         <v>414</v>
       </c>
@@ -18437,7 +18427,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="205" spans="1:22" hidden="1">
+    <row r="205" spans="1:22">
       <c r="A205" t="s">
         <v>1325</v>
       </c>
@@ -18505,7 +18495,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="206" spans="1:22" hidden="1">
+    <row r="206" spans="1:22">
       <c r="A206" t="s">
         <v>416</v>
       </c>
@@ -18573,7 +18563,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:22" hidden="1">
+    <row r="207" spans="1:22">
       <c r="A207" t="s">
         <v>418</v>
       </c>
@@ -18641,7 +18631,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:22" hidden="1">
+    <row r="208" spans="1:22">
       <c r="A208" t="s">
         <v>420</v>
       </c>
@@ -18709,7 +18699,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="209" spans="1:22" hidden="1">
+    <row r="209" spans="1:22">
       <c r="A209" t="s">
         <v>422</v>
       </c>
@@ -18777,7 +18767,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="210" spans="1:22" hidden="1">
+    <row r="210" spans="1:22">
       <c r="A210" t="s">
         <v>424</v>
       </c>
@@ -18845,7 +18835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="211" spans="1:22" hidden="1">
+    <row r="211" spans="1:22">
       <c r="A211" t="s">
         <v>426</v>
       </c>
@@ -18913,7 +18903,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="212" spans="1:22" hidden="1">
+    <row r="212" spans="1:22">
       <c r="A212" t="s">
         <v>428</v>
       </c>
@@ -18981,7 +18971,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="213" spans="1:22" hidden="1">
+    <row r="213" spans="1:22">
       <c r="A213" t="s">
         <v>430</v>
       </c>
@@ -19049,7 +19039,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="214" spans="1:22" hidden="1">
+    <row r="214" spans="1:22">
       <c r="A214" t="s">
         <v>432</v>
       </c>
@@ -19117,7 +19107,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="215" spans="1:22" hidden="1">
+    <row r="215" spans="1:22">
       <c r="A215" t="s">
         <v>434</v>
       </c>
@@ -19185,7 +19175,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="216" spans="1:22" hidden="1">
+    <row r="216" spans="1:22">
       <c r="A216" t="s">
         <v>436</v>
       </c>
@@ -19253,7 +19243,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="217" spans="1:22" hidden="1">
+    <row r="217" spans="1:22">
       <c r="A217" t="s">
         <v>1323</v>
       </c>
@@ -19321,7 +19311,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="218" spans="1:22" hidden="1">
+    <row r="218" spans="1:22">
       <c r="A218" t="s">
         <v>438</v>
       </c>
@@ -19389,7 +19379,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="219" spans="1:22" hidden="1">
+    <row r="219" spans="1:22">
       <c r="A219" t="s">
         <v>1311</v>
       </c>
@@ -19457,7 +19447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:22" hidden="1">
+    <row r="220" spans="1:22">
       <c r="A220" t="s">
         <v>440</v>
       </c>
@@ -19525,7 +19515,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="221" spans="1:22" hidden="1">
+    <row r="221" spans="1:22">
       <c r="A221" t="s">
         <v>442</v>
       </c>
@@ -19593,7 +19583,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="222" spans="1:22" hidden="1">
+    <row r="222" spans="1:22">
       <c r="A222" t="s">
         <v>444</v>
       </c>
@@ -19729,7 +19719,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="224" spans="1:22" hidden="1">
+    <row r="224" spans="1:22">
       <c r="A224" t="s">
         <v>448</v>
       </c>
@@ -19797,7 +19787,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="225" spans="1:22" hidden="1">
+    <row r="225" spans="1:22">
       <c r="A225" t="s">
         <v>450</v>
       </c>
@@ -19865,7 +19855,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="226" spans="1:22" hidden="1">
+    <row r="226" spans="1:22">
       <c r="A226" t="s">
         <v>452</v>
       </c>
@@ -19933,7 +19923,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="227" spans="1:22" hidden="1">
+    <row r="227" spans="1:22">
       <c r="A227" t="s">
         <v>454</v>
       </c>
@@ -20001,7 +19991,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="228" spans="1:22" hidden="1">
+    <row r="228" spans="1:22">
       <c r="A228" t="s">
         <v>456</v>
       </c>
@@ -20069,7 +20059,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="229" spans="1:22" hidden="1">
+    <row r="229" spans="1:22">
       <c r="A229" t="s">
         <v>458</v>
       </c>
@@ -20137,7 +20127,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="230" spans="1:22" hidden="1">
+    <row r="230" spans="1:22">
       <c r="A230" t="s">
         <v>460</v>
       </c>
@@ -20205,7 +20195,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="231" spans="1:22" hidden="1">
+    <row r="231" spans="1:22">
       <c r="A231" t="s">
         <v>462</v>
       </c>
@@ -20273,7 +20263,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="232" spans="1:22" hidden="1">
+    <row r="232" spans="1:22">
       <c r="A232" t="s">
         <v>464</v>
       </c>
@@ -20341,7 +20331,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="233" spans="1:22" hidden="1">
+    <row r="233" spans="1:22">
       <c r="A233" t="s">
         <v>466</v>
       </c>
@@ -20409,7 +20399,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="234" spans="1:22" hidden="1">
+    <row r="234" spans="1:22">
       <c r="A234" t="s">
         <v>468</v>
       </c>
@@ -20477,7 +20467,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="235" spans="1:22" hidden="1">
+    <row r="235" spans="1:22">
       <c r="A235" t="s">
         <v>470</v>
       </c>
@@ -20545,7 +20535,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="236" spans="1:22" hidden="1">
+    <row r="236" spans="1:22">
       <c r="A236" t="s">
         <v>472</v>
       </c>
@@ -20613,7 +20603,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="237" spans="1:22" hidden="1">
+    <row r="237" spans="1:22">
       <c r="A237" t="s">
         <v>474</v>
       </c>
@@ -20681,7 +20671,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="238" spans="1:22" hidden="1">
+    <row r="238" spans="1:22">
       <c r="A238" t="s">
         <v>476</v>
       </c>
@@ -20749,7 +20739,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="239" spans="1:22" hidden="1">
+    <row r="239" spans="1:22">
       <c r="A239" t="s">
         <v>478</v>
       </c>
@@ -20817,7 +20807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="240" spans="1:22" hidden="1">
+    <row r="240" spans="1:22">
       <c r="A240" t="s">
         <v>480</v>
       </c>
@@ -20885,7 +20875,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="241" spans="1:22" hidden="1">
+    <row r="241" spans="1:22">
       <c r="A241" t="s">
         <v>482</v>
       </c>
@@ -20953,7 +20943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="242" spans="1:22" hidden="1">
+    <row r="242" spans="1:22">
       <c r="A242" t="s">
         <v>484</v>
       </c>
@@ -21021,7 +21011,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="243" spans="1:22" hidden="1">
+    <row r="243" spans="1:22">
       <c r="A243" t="s">
         <v>486</v>
       </c>
@@ -21089,7 +21079,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="244" spans="1:22" hidden="1">
+    <row r="244" spans="1:22">
       <c r="A244" t="s">
         <v>488</v>
       </c>
@@ -21157,7 +21147,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="245" spans="1:22" hidden="1">
+    <row r="245" spans="1:22">
       <c r="A245" t="s">
         <v>490</v>
       </c>
@@ -21225,7 +21215,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="246" spans="1:22" hidden="1">
+    <row r="246" spans="1:22">
       <c r="A246" t="s">
         <v>492</v>
       </c>
@@ -21293,7 +21283,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="247" spans="1:22" hidden="1">
+    <row r="247" spans="1:22">
       <c r="A247" t="s">
         <v>494</v>
       </c>
@@ -21429,7 +21419,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="249" spans="1:22" hidden="1">
+    <row r="249" spans="1:22">
       <c r="A249" t="s">
         <v>498</v>
       </c>
@@ -21497,7 +21487,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="250" spans="1:22" hidden="1">
+    <row r="250" spans="1:22">
       <c r="A250" t="s">
         <v>500</v>
       </c>
@@ -21565,7 +21555,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="251" spans="1:22" hidden="1">
+    <row r="251" spans="1:22">
       <c r="A251" t="s">
         <v>502</v>
       </c>
@@ -21633,7 +21623,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="252" spans="1:22" hidden="1">
+    <row r="252" spans="1:22">
       <c r="A252" t="s">
         <v>504</v>
       </c>
@@ -21701,7 +21691,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="253" spans="1:22" hidden="1">
+    <row r="253" spans="1:22">
       <c r="A253" t="s">
         <v>506</v>
       </c>
@@ -21769,7 +21759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="254" spans="1:22" hidden="1">
+    <row r="254" spans="1:22">
       <c r="A254" t="s">
         <v>508</v>
       </c>
@@ -21837,7 +21827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:22" hidden="1">
+    <row r="255" spans="1:22">
       <c r="A255" t="s">
         <v>510</v>
       </c>
@@ -21905,7 +21895,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="256" spans="1:22" hidden="1">
+    <row r="256" spans="1:22">
       <c r="A256" t="s">
         <v>512</v>
       </c>
@@ -21973,7 +21963,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="257" spans="1:22" hidden="1">
+    <row r="257" spans="1:22">
       <c r="A257" t="s">
         <v>514</v>
       </c>
@@ -22041,7 +22031,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="258" spans="1:22" hidden="1">
+    <row r="258" spans="1:22">
       <c r="A258" t="s">
         <v>516</v>
       </c>
@@ -22109,7 +22099,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="259" spans="1:22" hidden="1">
+    <row r="259" spans="1:22">
       <c r="A259" t="s">
         <v>518</v>
       </c>
@@ -22177,7 +22167,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="260" spans="1:22" hidden="1">
+    <row r="260" spans="1:22">
       <c r="A260" t="s">
         <v>520</v>
       </c>
@@ -22245,7 +22235,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="261" spans="1:22" hidden="1">
+    <row r="261" spans="1:22">
       <c r="A261" t="s">
         <v>522</v>
       </c>
@@ -22313,7 +22303,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="262" spans="1:22" hidden="1">
+    <row r="262" spans="1:22">
       <c r="A262" t="s">
         <v>524</v>
       </c>
@@ -22381,7 +22371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="263" spans="1:22" hidden="1">
+    <row r="263" spans="1:22">
       <c r="A263" t="s">
         <v>526</v>
       </c>
@@ -22449,7 +22439,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="264" spans="1:22" hidden="1">
+    <row r="264" spans="1:22">
       <c r="A264" t="s">
         <v>528</v>
       </c>
@@ -22517,7 +22507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="265" spans="1:22" hidden="1">
+    <row r="265" spans="1:22">
       <c r="A265" t="s">
         <v>530</v>
       </c>
@@ -22585,7 +22575,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="266" spans="1:22" hidden="1">
+    <row r="266" spans="1:22">
       <c r="A266" t="s">
         <v>532</v>
       </c>
@@ -22653,7 +22643,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="267" spans="1:22" hidden="1">
+    <row r="267" spans="1:22">
       <c r="A267" t="s">
         <v>534</v>
       </c>
@@ -22721,7 +22711,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="268" spans="1:22" hidden="1">
+    <row r="268" spans="1:22">
       <c r="A268" t="s">
         <v>536</v>
       </c>
@@ -22789,7 +22779,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="269" spans="1:22" hidden="1">
+    <row r="269" spans="1:22">
       <c r="A269" t="s">
         <v>538</v>
       </c>
@@ -22925,7 +22915,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="271" spans="1:22" hidden="1">
+    <row r="271" spans="1:22">
       <c r="A271" t="s">
         <v>540</v>
       </c>
@@ -22993,7 +22983,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="272" spans="1:22" hidden="1">
+    <row r="272" spans="1:22">
       <c r="A272" t="s">
         <v>542</v>
       </c>
@@ -23061,7 +23051,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="273" spans="1:22" hidden="1">
+    <row r="273" spans="1:22">
       <c r="A273" t="s">
         <v>544</v>
       </c>
@@ -23129,7 +23119,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="274" spans="1:22" hidden="1">
+    <row r="274" spans="1:22">
       <c r="A274" t="s">
         <v>546</v>
       </c>
@@ -23197,7 +23187,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="275" spans="1:22" hidden="1">
+    <row r="275" spans="1:22">
       <c r="A275" t="s">
         <v>548</v>
       </c>
@@ -23265,7 +23255,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="276" spans="1:22" hidden="1">
+    <row r="276" spans="1:22">
       <c r="A276" t="s">
         <v>550</v>
       </c>
@@ -23333,7 +23323,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="277" spans="1:22" hidden="1">
+    <row r="277" spans="1:22">
       <c r="A277" t="s">
         <v>552</v>
       </c>
@@ -23401,7 +23391,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="278" spans="1:22" hidden="1">
+    <row r="278" spans="1:22">
       <c r="A278" t="s">
         <v>554</v>
       </c>
@@ -23469,7 +23459,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="279" spans="1:22" hidden="1">
+    <row r="279" spans="1:22">
       <c r="A279" t="s">
         <v>556</v>
       </c>
@@ -23537,7 +23527,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="280" spans="1:22" hidden="1">
+    <row r="280" spans="1:22">
       <c r="A280" t="s">
         <v>558</v>
       </c>
@@ -23605,7 +23595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="281" spans="1:22" hidden="1">
+    <row r="281" spans="1:22">
       <c r="A281" t="s">
         <v>560</v>
       </c>
@@ -23673,7 +23663,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="282" spans="1:22" hidden="1">
+    <row r="282" spans="1:22">
       <c r="A282" t="s">
         <v>562</v>
       </c>
@@ -23741,7 +23731,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="283" spans="1:22" hidden="1">
+    <row r="283" spans="1:22">
       <c r="A283" t="s">
         <v>564</v>
       </c>
@@ -23809,7 +23799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="284" spans="1:22" hidden="1">
+    <row r="284" spans="1:22">
       <c r="A284" t="s">
         <v>566</v>
       </c>
@@ -23877,7 +23867,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="285" spans="1:22" hidden="1">
+    <row r="285" spans="1:22">
       <c r="A285" t="s">
         <v>568</v>
       </c>
@@ -23945,7 +23935,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="286" spans="1:22" hidden="1">
+    <row r="286" spans="1:22">
       <c r="A286" t="s">
         <v>570</v>
       </c>
@@ -24013,7 +24003,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="287" spans="1:22" hidden="1">
+    <row r="287" spans="1:22">
       <c r="A287" t="s">
         <v>572</v>
       </c>
@@ -24081,7 +24071,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="288" spans="1:22" hidden="1">
+    <row r="288" spans="1:22">
       <c r="A288" t="s">
         <v>1315</v>
       </c>
@@ -24149,7 +24139,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="289" spans="1:22" hidden="1">
+    <row r="289" spans="1:22">
       <c r="A289" t="s">
         <v>574</v>
       </c>
@@ -24217,7 +24207,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="290" spans="1:22" hidden="1">
+    <row r="290" spans="1:22">
       <c r="A290" t="s">
         <v>576</v>
       </c>
@@ -24285,7 +24275,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="291" spans="1:22" hidden="1">
+    <row r="291" spans="1:22">
       <c r="A291" t="s">
         <v>578</v>
       </c>
@@ -24353,7 +24343,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="292" spans="1:22" hidden="1">
+    <row r="292" spans="1:22">
       <c r="A292" t="s">
         <v>580</v>
       </c>
@@ -24421,7 +24411,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="293" spans="1:22" hidden="1">
+    <row r="293" spans="1:22">
       <c r="A293" t="s">
         <v>582</v>
       </c>
@@ -24489,7 +24479,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="294" spans="1:22" hidden="1">
+    <row r="294" spans="1:22">
       <c r="A294" t="s">
         <v>584</v>
       </c>
@@ -24557,7 +24547,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:22" hidden="1">
+    <row r="295" spans="1:22">
       <c r="A295" t="s">
         <v>586</v>
       </c>
@@ -24625,7 +24615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="296" spans="1:22" hidden="1">
+    <row r="296" spans="1:22">
       <c r="A296" t="s">
         <v>588</v>
       </c>
@@ -24693,7 +24683,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="297" spans="1:22" hidden="1">
+    <row r="297" spans="1:22">
       <c r="A297" t="s">
         <v>590</v>
       </c>
@@ -24761,7 +24751,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="298" spans="1:22" hidden="1">
+    <row r="298" spans="1:22">
       <c r="A298" t="s">
         <v>592</v>
       </c>
@@ -24829,7 +24819,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="299" spans="1:22" hidden="1">
+    <row r="299" spans="1:22">
       <c r="A299" t="s">
         <v>594</v>
       </c>
@@ -24897,7 +24887,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="300" spans="1:22" hidden="1">
+    <row r="300" spans="1:22">
       <c r="A300" t="s">
         <v>596</v>
       </c>
@@ -24965,7 +24955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="301" spans="1:22" hidden="1">
+    <row r="301" spans="1:22">
       <c r="A301" t="s">
         <v>598</v>
       </c>
@@ -25033,7 +25023,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="302" spans="1:22" hidden="1">
+    <row r="302" spans="1:22">
       <c r="A302" t="s">
         <v>600</v>
       </c>
@@ -25101,7 +25091,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="303" spans="1:22" hidden="1">
+    <row r="303" spans="1:22">
       <c r="A303" t="s">
         <v>602</v>
       </c>
@@ -25169,7 +25159,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="304" spans="1:22" hidden="1">
+    <row r="304" spans="1:22">
       <c r="A304" t="s">
         <v>604</v>
       </c>
@@ -25237,7 +25227,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="305" spans="1:22" hidden="1">
+    <row r="305" spans="1:22">
       <c r="A305" t="s">
         <v>606</v>
       </c>
@@ -25305,7 +25295,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="306" spans="1:22" hidden="1">
+    <row r="306" spans="1:22">
       <c r="A306" t="s">
         <v>608</v>
       </c>
@@ -25373,7 +25363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="307" spans="1:22" hidden="1">
+    <row r="307" spans="1:22">
       <c r="A307" t="s">
         <v>610</v>
       </c>
@@ -25441,7 +25431,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="308" spans="1:22" hidden="1">
+    <row r="308" spans="1:22">
       <c r="A308" t="s">
         <v>612</v>
       </c>
@@ -25509,7 +25499,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="309" spans="1:22" hidden="1">
+    <row r="309" spans="1:22">
       <c r="A309" t="s">
         <v>614</v>
       </c>
@@ -25577,7 +25567,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="310" spans="1:22" hidden="1">
+    <row r="310" spans="1:22">
       <c r="A310" t="s">
         <v>616</v>
       </c>
@@ -25645,7 +25635,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="311" spans="1:22" hidden="1">
+    <row r="311" spans="1:22">
       <c r="A311" t="s">
         <v>618</v>
       </c>
@@ -25713,7 +25703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="312" spans="1:22" hidden="1">
+    <row r="312" spans="1:22">
       <c r="A312" t="s">
         <v>620</v>
       </c>
@@ -25781,7 +25771,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="313" spans="1:22" hidden="1">
+    <row r="313" spans="1:22">
       <c r="A313" t="s">
         <v>622</v>
       </c>
@@ -25849,7 +25839,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="314" spans="1:22" hidden="1">
+    <row r="314" spans="1:22">
       <c r="A314" t="s">
         <v>624</v>
       </c>
@@ -25917,7 +25907,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="315" spans="1:22" hidden="1">
+    <row r="315" spans="1:22">
       <c r="A315" t="s">
         <v>626</v>
       </c>
@@ -25985,7 +25975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="316" spans="1:22" hidden="1">
+    <row r="316" spans="1:22">
       <c r="A316" t="s">
         <v>628</v>
       </c>
@@ -26053,7 +26043,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="317" spans="1:22" hidden="1">
+    <row r="317" spans="1:22">
       <c r="A317" t="s">
         <v>630</v>
       </c>
@@ -26121,7 +26111,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="318" spans="1:22" hidden="1">
+    <row r="318" spans="1:22">
       <c r="A318" t="s">
         <v>632</v>
       </c>
@@ -26189,7 +26179,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="319" spans="1:22" hidden="1">
+    <row r="319" spans="1:22">
       <c r="A319" t="s">
         <v>634</v>
       </c>
@@ -26257,7 +26247,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="320" spans="1:22" hidden="1">
+    <row r="320" spans="1:22">
       <c r="A320" t="s">
         <v>636</v>
       </c>
@@ -26325,7 +26315,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="321" spans="1:22" hidden="1">
+    <row r="321" spans="1:22">
       <c r="A321" t="s">
         <v>638</v>
       </c>
@@ -26393,7 +26383,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="322" spans="1:22" hidden="1">
+    <row r="322" spans="1:22">
       <c r="A322" t="s">
         <v>640</v>
       </c>
@@ -26461,7 +26451,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="323" spans="1:22" hidden="1">
+    <row r="323" spans="1:22">
       <c r="A323" t="s">
         <v>642</v>
       </c>
@@ -26529,7 +26519,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="324" spans="1:22" hidden="1">
+    <row r="324" spans="1:22">
       <c r="A324" t="s">
         <v>644</v>
       </c>
@@ -26597,7 +26587,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="325" spans="1:22" hidden="1">
+    <row r="325" spans="1:22">
       <c r="A325" t="s">
         <v>646</v>
       </c>
@@ -26665,7 +26655,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="326" spans="1:22" hidden="1">
+    <row r="326" spans="1:22">
       <c r="A326" t="s">
         <v>648</v>
       </c>
@@ -26733,7 +26723,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="327" spans="1:22" hidden="1">
+    <row r="327" spans="1:22">
       <c r="A327" t="s">
         <v>650</v>
       </c>
@@ -26801,7 +26791,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="328" spans="1:22" hidden="1">
+    <row r="328" spans="1:22">
       <c r="A328" t="s">
         <v>652</v>
       </c>
@@ -26869,7 +26859,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="329" spans="1:22" hidden="1">
+    <row r="329" spans="1:22">
       <c r="A329" t="s">
         <v>654</v>
       </c>
@@ -26937,7 +26927,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="330" spans="1:22" hidden="1">
+    <row r="330" spans="1:22">
       <c r="A330" t="s">
         <v>656</v>
       </c>
@@ -27005,7 +26995,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="331" spans="1:22" hidden="1">
+    <row r="331" spans="1:22">
       <c r="A331" t="s">
         <v>658</v>
       </c>
@@ -27141,7 +27131,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="333" spans="1:22" hidden="1">
+    <row r="333" spans="1:22">
       <c r="A333" t="s">
         <v>660</v>
       </c>
@@ -27209,7 +27199,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="334" spans="1:22" hidden="1">
+    <row r="334" spans="1:22">
       <c r="A334" t="s">
         <v>662</v>
       </c>
@@ -27277,7 +27267,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="335" spans="1:22" hidden="1">
+    <row r="335" spans="1:22">
       <c r="A335" t="s">
         <v>664</v>
       </c>
@@ -27345,7 +27335,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="336" spans="1:22" hidden="1">
+    <row r="336" spans="1:22">
       <c r="A336" t="s">
         <v>666</v>
       </c>
@@ -27413,7 +27403,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="337" spans="1:22" hidden="1">
+    <row r="337" spans="1:22">
       <c r="A337" t="s">
         <v>668</v>
       </c>
@@ -27481,7 +27471,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="338" spans="1:22" hidden="1">
+    <row r="338" spans="1:22">
       <c r="A338" t="s">
         <v>670</v>
       </c>
@@ -27549,7 +27539,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="339" spans="1:22" hidden="1">
+    <row r="339" spans="1:22">
       <c r="A339" t="s">
         <v>672</v>
       </c>
@@ -27617,7 +27607,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="340" spans="1:22" hidden="1">
+    <row r="340" spans="1:22">
       <c r="A340" t="s">
         <v>674</v>
       </c>
@@ -27685,7 +27675,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="341" spans="1:22" hidden="1">
+    <row r="341" spans="1:22">
       <c r="A341" t="s">
         <v>676</v>
       </c>
@@ -27753,7 +27743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="342" spans="1:22" hidden="1">
+    <row r="342" spans="1:22">
       <c r="A342" t="s">
         <v>678</v>
       </c>
@@ -27821,7 +27811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="343" spans="1:22" hidden="1">
+    <row r="343" spans="1:22">
       <c r="A343" t="s">
         <v>680</v>
       </c>
@@ -27889,7 +27879,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="344" spans="1:22" hidden="1">
+    <row r="344" spans="1:22">
       <c r="A344" t="s">
         <v>682</v>
       </c>
@@ -27957,7 +27947,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="345" spans="1:22" hidden="1">
+    <row r="345" spans="1:22">
       <c r="A345" t="s">
         <v>684</v>
       </c>
@@ -28025,7 +28015,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="346" spans="1:22" hidden="1">
+    <row r="346" spans="1:22">
       <c r="A346" t="s">
         <v>686</v>
       </c>
@@ -28093,7 +28083,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="347" spans="1:22" hidden="1">
+    <row r="347" spans="1:22">
       <c r="A347" t="s">
         <v>688</v>
       </c>
@@ -28161,7 +28151,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="348" spans="1:22" hidden="1">
+    <row r="348" spans="1:22">
       <c r="A348" t="s">
         <v>690</v>
       </c>
@@ -28229,7 +28219,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="349" spans="1:22" hidden="1">
+    <row r="349" spans="1:22">
       <c r="A349" t="s">
         <v>692</v>
       </c>
@@ -28297,7 +28287,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="350" spans="1:22" hidden="1">
+    <row r="350" spans="1:22">
       <c r="A350" t="s">
         <v>694</v>
       </c>
@@ -28365,7 +28355,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="351" spans="1:22" hidden="1">
+    <row r="351" spans="1:22">
       <c r="A351" t="s">
         <v>696</v>
       </c>
@@ -28433,7 +28423,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="352" spans="1:22" hidden="1">
+    <row r="352" spans="1:22">
       <c r="A352" t="s">
         <v>698</v>
       </c>
@@ -28501,7 +28491,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="353" spans="1:22" hidden="1">
+    <row r="353" spans="1:22">
       <c r="A353" t="s">
         <v>700</v>
       </c>
@@ -28569,7 +28559,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="354" spans="1:22" hidden="1">
+    <row r="354" spans="1:22">
       <c r="A354" t="s">
         <v>702</v>
       </c>
@@ -28637,7 +28627,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="355" spans="1:22" hidden="1">
+    <row r="355" spans="1:22">
       <c r="A355" t="s">
         <v>704</v>
       </c>
@@ -28705,7 +28695,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="356" spans="1:22" hidden="1">
+    <row r="356" spans="1:22">
       <c r="A356" t="s">
         <v>706</v>
       </c>
@@ -28773,7 +28763,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="357" spans="1:22" hidden="1">
+    <row r="357" spans="1:22">
       <c r="A357" t="s">
         <v>708</v>
       </c>
@@ -28841,7 +28831,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="358" spans="1:22" hidden="1">
+    <row r="358" spans="1:22">
       <c r="A358" t="s">
         <v>710</v>
       </c>
@@ -28909,7 +28899,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="359" spans="1:22" hidden="1">
+    <row r="359" spans="1:22">
       <c r="A359" t="s">
         <v>1313</v>
       </c>
@@ -28977,7 +28967,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="360" spans="1:22" hidden="1">
+    <row r="360" spans="1:22">
       <c r="A360" t="s">
         <v>712</v>
       </c>
@@ -29045,7 +29035,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="361" spans="1:22" hidden="1">
+    <row r="361" spans="1:22">
       <c r="A361" t="s">
         <v>714</v>
       </c>
@@ -29113,7 +29103,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="362" spans="1:22" hidden="1">
+    <row r="362" spans="1:22">
       <c r="A362" t="s">
         <v>716</v>
       </c>
@@ -29181,7 +29171,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="363" spans="1:22" hidden="1">
+    <row r="363" spans="1:22">
       <c r="A363" t="s">
         <v>718</v>
       </c>
@@ -29249,7 +29239,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="364" spans="1:22" hidden="1">
+    <row r="364" spans="1:22">
       <c r="A364" t="s">
         <v>720</v>
       </c>
@@ -29317,7 +29307,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="365" spans="1:22" hidden="1">
+    <row r="365" spans="1:22">
       <c r="A365" t="s">
         <v>721</v>
       </c>
@@ -29385,7 +29375,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="366" spans="1:22" hidden="1">
+    <row r="366" spans="1:22">
       <c r="A366" t="s">
         <v>723</v>
       </c>
@@ -29453,7 +29443,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="367" spans="1:22" hidden="1">
+    <row r="367" spans="1:22">
       <c r="A367" t="s">
         <v>725</v>
       </c>
@@ -29521,7 +29511,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="368" spans="1:22" hidden="1">
+    <row r="368" spans="1:22">
       <c r="A368" t="s">
         <v>727</v>
       </c>
@@ -29589,7 +29579,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="369" spans="1:22" hidden="1">
+    <row r="369" spans="1:22">
       <c r="A369" t="s">
         <v>729</v>
       </c>
@@ -29657,7 +29647,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="370" spans="1:22" hidden="1">
+    <row r="370" spans="1:22">
       <c r="A370" t="s">
         <v>731</v>
       </c>
@@ -29725,7 +29715,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="371" spans="1:22" hidden="1">
+    <row r="371" spans="1:22">
       <c r="A371" t="s">
         <v>733</v>
       </c>
@@ -29793,7 +29783,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="372" spans="1:22" hidden="1">
+    <row r="372" spans="1:22">
       <c r="A372" t="s">
         <v>735</v>
       </c>
@@ -29861,7 +29851,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="373" spans="1:22" hidden="1">
+    <row r="373" spans="1:22">
       <c r="A373" t="s">
         <v>737</v>
       </c>
@@ -29929,7 +29919,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="374" spans="1:22" hidden="1">
+    <row r="374" spans="1:22">
       <c r="A374" t="s">
         <v>739</v>
       </c>
@@ -29997,7 +29987,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="375" spans="1:22" hidden="1">
+    <row r="375" spans="1:22">
       <c r="A375" t="s">
         <v>741</v>
       </c>
@@ -30065,7 +30055,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="376" spans="1:22" hidden="1">
+    <row r="376" spans="1:22">
       <c r="A376" t="s">
         <v>743</v>
       </c>
@@ -30133,7 +30123,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="377" spans="1:22" hidden="1">
+    <row r="377" spans="1:22">
       <c r="A377" t="s">
         <v>744</v>
       </c>
@@ -30201,7 +30191,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="378" spans="1:22" hidden="1">
+    <row r="378" spans="1:22">
       <c r="A378" t="s">
         <v>746</v>
       </c>
@@ -30269,7 +30259,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="379" spans="1:22" hidden="1">
+    <row r="379" spans="1:22">
       <c r="A379" t="s">
         <v>748</v>
       </c>
@@ -30337,7 +30327,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="380" spans="1:22" hidden="1">
+    <row r="380" spans="1:22">
       <c r="A380" t="s">
         <v>750</v>
       </c>
@@ -30405,7 +30395,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="381" spans="1:22" hidden="1">
+    <row r="381" spans="1:22">
       <c r="A381" t="s">
         <v>752</v>
       </c>
@@ -30473,7 +30463,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="382" spans="1:22" hidden="1">
+    <row r="382" spans="1:22">
       <c r="A382" t="s">
         <v>754</v>
       </c>
@@ -30541,7 +30531,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="383" spans="1:22" hidden="1">
+    <row r="383" spans="1:22">
       <c r="A383" t="s">
         <v>756</v>
       </c>
@@ -30609,7 +30599,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="384" spans="1:22" hidden="1">
+    <row r="384" spans="1:22">
       <c r="A384" t="s">
         <v>758</v>
       </c>
@@ -30677,7 +30667,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="385" spans="1:22" hidden="1">
+    <row r="385" spans="1:22">
       <c r="A385" t="s">
         <v>759</v>
       </c>
@@ -30745,7 +30735,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="386" spans="1:22" hidden="1">
+    <row r="386" spans="1:22">
       <c r="A386" t="s">
         <v>761</v>
       </c>
@@ -30813,7 +30803,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="387" spans="1:22" hidden="1">
+    <row r="387" spans="1:22">
       <c r="A387" t="s">
         <v>763</v>
       </c>
@@ -30881,7 +30871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="388" spans="1:22" hidden="1">
+    <row r="388" spans="1:22">
       <c r="A388" t="s">
         <v>765</v>
       </c>
@@ -30949,7 +30939,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="389" spans="1:22" hidden="1">
+    <row r="389" spans="1:22">
       <c r="A389" t="s">
         <v>767</v>
       </c>
@@ -31017,7 +31007,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="390" spans="1:22" hidden="1">
+    <row r="390" spans="1:22">
       <c r="A390" t="s">
         <v>768</v>
       </c>
@@ -31085,7 +31075,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="391" spans="1:22" hidden="1">
+    <row r="391" spans="1:22">
       <c r="A391" t="s">
         <v>770</v>
       </c>
@@ -31153,7 +31143,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="392" spans="1:22" hidden="1">
+    <row r="392" spans="1:22">
       <c r="A392" t="s">
         <v>772</v>
       </c>
@@ -31221,7 +31211,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="393" spans="1:22" hidden="1">
+    <row r="393" spans="1:22">
       <c r="A393" t="s">
         <v>774</v>
       </c>
@@ -31289,7 +31279,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="394" spans="1:22" hidden="1">
+    <row r="394" spans="1:22">
       <c r="A394" t="s">
         <v>775</v>
       </c>
@@ -31357,7 +31347,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="395" spans="1:22" hidden="1">
+    <row r="395" spans="1:22">
       <c r="A395" t="s">
         <v>777</v>
       </c>
@@ -31425,7 +31415,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="396" spans="1:22" hidden="1">
+    <row r="396" spans="1:22">
       <c r="A396" t="s">
         <v>779</v>
       </c>
@@ -31493,7 +31483,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="397" spans="1:22" hidden="1">
+    <row r="397" spans="1:22">
       <c r="A397" t="s">
         <v>781</v>
       </c>
@@ -31561,7 +31551,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="398" spans="1:22" hidden="1">
+    <row r="398" spans="1:22">
       <c r="A398" t="s">
         <v>782</v>
       </c>
@@ -31629,7 +31619,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="399" spans="1:22" hidden="1">
+    <row r="399" spans="1:22">
       <c r="A399" t="s">
         <v>784</v>
       </c>
@@ -31697,7 +31687,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="400" spans="1:22" hidden="1">
+    <row r="400" spans="1:22">
       <c r="A400" t="s">
         <v>786</v>
       </c>
@@ -31765,7 +31755,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="401" spans="1:22" hidden="1">
+    <row r="401" spans="1:22">
       <c r="A401" t="s">
         <v>788</v>
       </c>
@@ -31901,7 +31891,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="403" spans="1:22" hidden="1">
+    <row r="403" spans="1:22">
       <c r="A403" t="s">
         <v>1329</v>
       </c>
@@ -31969,7 +31959,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="404" spans="1:22" hidden="1">
+    <row r="404" spans="1:22">
       <c r="A404" t="s">
         <v>790</v>
       </c>
@@ -32037,7 +32027,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="405" spans="1:22" hidden="1">
+    <row r="405" spans="1:22">
       <c r="A405" t="s">
         <v>792</v>
       </c>
@@ -32105,7 +32095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="406" spans="1:22" hidden="1">
+    <row r="406" spans="1:22">
       <c r="A406" t="s">
         <v>794</v>
       </c>
@@ -32173,7 +32163,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="407" spans="1:22" hidden="1">
+    <row r="407" spans="1:22">
       <c r="A407" t="s">
         <v>796</v>
       </c>
@@ -32241,7 +32231,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="408" spans="1:22" hidden="1">
+    <row r="408" spans="1:22">
       <c r="A408" t="s">
         <v>798</v>
       </c>
@@ -32309,7 +32299,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="409" spans="1:22" hidden="1">
+    <row r="409" spans="1:22">
       <c r="A409" t="s">
         <v>800</v>
       </c>
@@ -32377,7 +32367,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="410" spans="1:22" hidden="1">
+    <row r="410" spans="1:22">
       <c r="A410" t="s">
         <v>802</v>
       </c>
@@ -32445,7 +32435,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="411" spans="1:22" hidden="1">
+    <row r="411" spans="1:22">
       <c r="A411" t="s">
         <v>804</v>
       </c>
@@ -32513,7 +32503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="412" spans="1:22" hidden="1">
+    <row r="412" spans="1:22">
       <c r="A412" t="s">
         <v>1317</v>
       </c>
@@ -32581,7 +32571,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="413" spans="1:22" hidden="1">
+    <row r="413" spans="1:22">
       <c r="A413" t="s">
         <v>806</v>
       </c>
@@ -32649,7 +32639,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="414" spans="1:22" hidden="1">
+    <row r="414" spans="1:22">
       <c r="A414" t="s">
         <v>808</v>
       </c>
@@ -32717,7 +32707,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="415" spans="1:22" hidden="1">
+    <row r="415" spans="1:22">
       <c r="A415" t="s">
         <v>809</v>
       </c>
@@ -32785,7 +32775,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="416" spans="1:22" hidden="1">
+    <row r="416" spans="1:22">
       <c r="A416" t="s">
         <v>810</v>
       </c>
@@ -32853,7 +32843,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="417" spans="1:22" hidden="1">
+    <row r="417" spans="1:22">
       <c r="A417" t="s">
         <v>812</v>
       </c>
@@ -32921,7 +32911,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="418" spans="1:22" hidden="1">
+    <row r="418" spans="1:22">
       <c r="A418" t="s">
         <v>814</v>
       </c>
@@ -32989,7 +32979,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="419" spans="1:22" hidden="1">
+    <row r="419" spans="1:22">
       <c r="A419" t="s">
         <v>816</v>
       </c>
@@ -33057,7 +33047,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="420" spans="1:22" hidden="1">
+    <row r="420" spans="1:22">
       <c r="A420" t="s">
         <v>818</v>
       </c>
@@ -33125,7 +33115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="421" spans="1:22" hidden="1">
+    <row r="421" spans="1:22">
       <c r="A421" t="s">
         <v>820</v>
       </c>
@@ -33193,7 +33183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="422" spans="1:22" hidden="1">
+    <row r="422" spans="1:22">
       <c r="A422" t="s">
         <v>822</v>
       </c>
@@ -33261,7 +33251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="423" spans="1:22" hidden="1">
+    <row r="423" spans="1:22">
       <c r="A423" t="s">
         <v>824</v>
       </c>
@@ -33329,7 +33319,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="424" spans="1:22" hidden="1">
+    <row r="424" spans="1:22">
       <c r="A424" t="s">
         <v>826</v>
       </c>
@@ -33397,7 +33387,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="425" spans="1:22" hidden="1">
+    <row r="425" spans="1:22">
       <c r="A425" t="s">
         <v>828</v>
       </c>
@@ -33465,7 +33455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="426" spans="1:22" hidden="1">
+    <row r="426" spans="1:22">
       <c r="A426" t="s">
         <v>830</v>
       </c>
@@ -33533,7 +33523,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="427" spans="1:22" hidden="1">
+    <row r="427" spans="1:22">
       <c r="A427" t="s">
         <v>832</v>
       </c>
@@ -33601,7 +33591,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="428" spans="1:22" hidden="1">
+    <row r="428" spans="1:22">
       <c r="A428" t="s">
         <v>833</v>
       </c>
@@ -33669,7 +33659,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="429" spans="1:22" hidden="1">
+    <row r="429" spans="1:22">
       <c r="A429" t="s">
         <v>835</v>
       </c>
@@ -33737,7 +33727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="430" spans="1:22" hidden="1">
+    <row r="430" spans="1:22">
       <c r="A430" t="s">
         <v>836</v>
       </c>
@@ -33805,7 +33795,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="431" spans="1:22" hidden="1">
+    <row r="431" spans="1:22">
       <c r="A431" t="s">
         <v>838</v>
       </c>
@@ -33873,7 +33863,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="432" spans="1:22" hidden="1">
+    <row r="432" spans="1:22">
       <c r="A432" t="s">
         <v>839</v>
       </c>
@@ -33941,7 +33931,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="433" spans="1:22" hidden="1">
+    <row r="433" spans="1:22">
       <c r="A433" t="s">
         <v>840</v>
       </c>
@@ -34009,7 +33999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="434" spans="1:22" hidden="1">
+    <row r="434" spans="1:22">
       <c r="A434" t="s">
         <v>842</v>
       </c>
@@ -34077,7 +34067,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="435" spans="1:22" hidden="1">
+    <row r="435" spans="1:22">
       <c r="A435" t="s">
         <v>843</v>
       </c>
@@ -34145,7 +34135,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="436" spans="1:22" hidden="1">
+    <row r="436" spans="1:22">
       <c r="A436" t="s">
         <v>844</v>
       </c>
@@ -34213,7 +34203,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="437" spans="1:22" hidden="1">
+    <row r="437" spans="1:22">
       <c r="A437" t="s">
         <v>846</v>
       </c>
@@ -34281,7 +34271,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="438" spans="1:22" hidden="1">
+    <row r="438" spans="1:22">
       <c r="A438" t="s">
         <v>848</v>
       </c>
@@ -34349,7 +34339,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="439" spans="1:22" hidden="1">
+    <row r="439" spans="1:22">
       <c r="A439" t="s">
         <v>850</v>
       </c>
@@ -34417,7 +34407,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="440" spans="1:22" hidden="1">
+    <row r="440" spans="1:22">
       <c r="A440" t="s">
         <v>852</v>
       </c>
@@ -34485,7 +34475,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="441" spans="1:22" hidden="1">
+    <row r="441" spans="1:22">
       <c r="A441" t="s">
         <v>853</v>
       </c>
@@ -34553,7 +34543,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="442" spans="1:22" hidden="1">
+    <row r="442" spans="1:22">
       <c r="A442" t="s">
         <v>855</v>
       </c>
@@ -34621,7 +34611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="443" spans="1:22" hidden="1">
+    <row r="443" spans="1:22">
       <c r="A443" t="s">
         <v>857</v>
       </c>
@@ -34689,7 +34679,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="444" spans="1:22" hidden="1">
+    <row r="444" spans="1:22">
       <c r="A444" t="s">
         <v>858</v>
       </c>
@@ -34757,7 +34747,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="445" spans="1:22" hidden="1">
+    <row r="445" spans="1:22">
       <c r="A445" t="s">
         <v>860</v>
       </c>
@@ -34825,7 +34815,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="446" spans="1:22" hidden="1">
+    <row r="446" spans="1:22">
       <c r="A446" t="s">
         <v>862</v>
       </c>
@@ -34893,7 +34883,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="447" spans="1:22" hidden="1">
+    <row r="447" spans="1:22">
       <c r="A447" t="s">
         <v>864</v>
       </c>
@@ -34961,7 +34951,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="448" spans="1:22" hidden="1">
+    <row r="448" spans="1:22">
       <c r="A448" t="s">
         <v>865</v>
       </c>
@@ -35029,7 +35019,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="449" spans="1:22" hidden="1">
+    <row r="449" spans="1:22">
       <c r="A449" t="s">
         <v>867</v>
       </c>
@@ -35097,7 +35087,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="450" spans="1:22" hidden="1">
+    <row r="450" spans="1:22">
       <c r="A450" t="s">
         <v>869</v>
       </c>
@@ -35165,7 +35155,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="451" spans="1:22" hidden="1">
+    <row r="451" spans="1:22">
       <c r="A451" t="s">
         <v>871</v>
       </c>
@@ -35233,7 +35223,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="452" spans="1:22" hidden="1">
+    <row r="452" spans="1:22">
       <c r="A452" t="s">
         <v>873</v>
       </c>
@@ -35301,7 +35291,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="453" spans="1:22" hidden="1">
+    <row r="453" spans="1:22">
       <c r="A453" t="s">
         <v>875</v>
       </c>
@@ -35369,7 +35359,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="454" spans="1:22" hidden="1">
+    <row r="454" spans="1:22">
       <c r="A454" t="s">
         <v>877</v>
       </c>
@@ -35437,7 +35427,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="455" spans="1:22" hidden="1">
+    <row r="455" spans="1:22">
       <c r="A455" t="s">
         <v>879</v>
       </c>
@@ -35505,7 +35495,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="456" spans="1:22" hidden="1">
+    <row r="456" spans="1:22">
       <c r="A456" t="s">
         <v>881</v>
       </c>
@@ -35573,7 +35563,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="457" spans="1:22" hidden="1">
+    <row r="457" spans="1:22">
       <c r="A457" t="s">
         <v>883</v>
       </c>
@@ -35641,7 +35631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="458" spans="1:22" hidden="1">
+    <row r="458" spans="1:22">
       <c r="A458" t="s">
         <v>885</v>
       </c>
@@ -35709,7 +35699,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="459" spans="1:22" hidden="1">
+    <row r="459" spans="1:22">
       <c r="A459" t="s">
         <v>887</v>
       </c>
@@ -35777,7 +35767,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="460" spans="1:22" hidden="1">
+    <row r="460" spans="1:22">
       <c r="A460" t="s">
         <v>889</v>
       </c>
@@ -35845,7 +35835,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="461" spans="1:22" hidden="1">
+    <row r="461" spans="1:22">
       <c r="A461" t="s">
         <v>891</v>
       </c>
@@ -35913,7 +35903,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="462" spans="1:22" hidden="1">
+    <row r="462" spans="1:22">
       <c r="A462" t="s">
         <v>893</v>
       </c>
@@ -35981,7 +35971,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="463" spans="1:22" hidden="1">
+    <row r="463" spans="1:22">
       <c r="A463" t="s">
         <v>894</v>
       </c>
@@ -36049,7 +36039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="464" spans="1:22" hidden="1">
+    <row r="464" spans="1:22">
       <c r="A464" t="s">
         <v>896</v>
       </c>
@@ -36117,7 +36107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="465" spans="1:22" hidden="1">
+    <row r="465" spans="1:22">
       <c r="A465" t="s">
         <v>898</v>
       </c>
@@ -36185,7 +36175,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="466" spans="1:22" hidden="1">
+    <row r="466" spans="1:22">
       <c r="A466" t="s">
         <v>900</v>
       </c>
@@ -36253,7 +36243,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="467" spans="1:22" hidden="1">
+    <row r="467" spans="1:22">
       <c r="A467" t="s">
         <v>902</v>
       </c>
@@ -36321,7 +36311,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="468" spans="1:22" hidden="1">
+    <row r="468" spans="1:22">
       <c r="A468" t="s">
         <v>904</v>
       </c>
@@ -36389,7 +36379,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="469" spans="1:22" hidden="1">
+    <row r="469" spans="1:22">
       <c r="A469" t="s">
         <v>906</v>
       </c>
@@ -36457,7 +36447,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="470" spans="1:22" hidden="1">
+    <row r="470" spans="1:22">
       <c r="A470" t="s">
         <v>908</v>
       </c>
@@ -36525,7 +36515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="471" spans="1:22" hidden="1">
+    <row r="471" spans="1:22">
       <c r="A471" t="s">
         <v>910</v>
       </c>
@@ -36593,7 +36583,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="472" spans="1:22" hidden="1">
+    <row r="472" spans="1:22">
       <c r="A472" t="s">
         <v>912</v>
       </c>
@@ -36661,7 +36651,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="473" spans="1:22" hidden="1">
+    <row r="473" spans="1:22">
       <c r="A473" t="s">
         <v>914</v>
       </c>
@@ -36729,7 +36719,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="474" spans="1:22" hidden="1">
+    <row r="474" spans="1:22">
       <c r="A474" t="s">
         <v>915</v>
       </c>
@@ -36797,7 +36787,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="475" spans="1:22" hidden="1">
+    <row r="475" spans="1:22">
       <c r="A475" t="s">
         <v>917</v>
       </c>
@@ -36865,7 +36855,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="476" spans="1:22" hidden="1">
+    <row r="476" spans="1:22">
       <c r="A476" t="s">
         <v>919</v>
       </c>
@@ -36933,7 +36923,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="477" spans="1:22" hidden="1">
+    <row r="477" spans="1:22">
       <c r="A477" t="s">
         <v>921</v>
       </c>
@@ -37001,7 +36991,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="478" spans="1:22" hidden="1">
+    <row r="478" spans="1:22">
       <c r="A478" t="s">
         <v>923</v>
       </c>
@@ -37069,7 +37059,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="479" spans="1:22" hidden="1">
+    <row r="479" spans="1:22">
       <c r="A479" t="s">
         <v>925</v>
       </c>
@@ -37137,7 +37127,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="480" spans="1:22" hidden="1">
+    <row r="480" spans="1:22">
       <c r="A480" t="s">
         <v>927</v>
       </c>
@@ -37205,7 +37195,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="481" spans="1:22" hidden="1">
+    <row r="481" spans="1:22">
       <c r="A481" t="s">
         <v>929</v>
       </c>
@@ -37273,7 +37263,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="482" spans="1:22" hidden="1">
+    <row r="482" spans="1:22">
       <c r="A482" t="s">
         <v>931</v>
       </c>
@@ -37341,7 +37331,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="483" spans="1:22" hidden="1">
+    <row r="483" spans="1:22">
       <c r="A483" t="s">
         <v>933</v>
       </c>
@@ -37409,7 +37399,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="484" spans="1:22" hidden="1">
+    <row r="484" spans="1:22">
       <c r="A484" t="s">
         <v>935</v>
       </c>
@@ -37477,7 +37467,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="485" spans="1:22" hidden="1">
+    <row r="485" spans="1:22">
       <c r="A485" t="s">
         <v>937</v>
       </c>
@@ -37545,7 +37535,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="486" spans="1:22" hidden="1">
+    <row r="486" spans="1:22">
       <c r="A486" t="s">
         <v>939</v>
       </c>
@@ -37613,7 +37603,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="487" spans="1:22" hidden="1">
+    <row r="487" spans="1:22">
       <c r="A487" t="s">
         <v>941</v>
       </c>
@@ -37681,7 +37671,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="488" spans="1:22" hidden="1">
+    <row r="488" spans="1:22">
       <c r="A488" t="s">
         <v>943</v>
       </c>
@@ -37749,7 +37739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="489" spans="1:22" hidden="1">
+    <row r="489" spans="1:22">
       <c r="A489" t="s">
         <v>945</v>
       </c>
@@ -37817,7 +37807,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="490" spans="1:22" hidden="1">
+    <row r="490" spans="1:22">
       <c r="A490" t="s">
         <v>947</v>
       </c>
@@ -37885,7 +37875,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="491" spans="1:22" hidden="1">
+    <row r="491" spans="1:22">
       <c r="A491" t="s">
         <v>949</v>
       </c>
@@ -38021,7 +38011,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="493" spans="1:22" hidden="1">
+    <row r="493" spans="1:22">
       <c r="A493" t="s">
         <v>951</v>
       </c>
@@ -38089,7 +38079,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="494" spans="1:22" hidden="1">
+    <row r="494" spans="1:22">
       <c r="A494" t="s">
         <v>953</v>
       </c>
@@ -38157,7 +38147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="495" spans="1:22" hidden="1">
+    <row r="495" spans="1:22">
       <c r="A495" t="s">
         <v>955</v>
       </c>
@@ -38225,7 +38215,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="496" spans="1:22" hidden="1">
+    <row r="496" spans="1:22">
       <c r="A496" t="s">
         <v>957</v>
       </c>
@@ -38293,7 +38283,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="497" spans="1:22" hidden="1">
+    <row r="497" spans="1:22">
       <c r="A497" t="s">
         <v>958</v>
       </c>
@@ -38361,7 +38351,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="498" spans="1:22" hidden="1">
+    <row r="498" spans="1:22">
       <c r="A498" t="s">
         <v>1327</v>
       </c>
@@ -38429,7 +38419,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="499" spans="1:22" hidden="1">
+    <row r="499" spans="1:22">
       <c r="A499" t="s">
         <v>960</v>
       </c>
@@ -38497,7 +38487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="500" spans="1:22" hidden="1">
+    <row r="500" spans="1:22">
       <c r="A500" t="s">
         <v>962</v>
       </c>
@@ -38633,7 +38623,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="502" spans="1:22" hidden="1">
+    <row r="502" spans="1:22">
       <c r="A502" t="s">
         <v>966</v>
       </c>
@@ -38701,7 +38691,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="503" spans="1:22" hidden="1">
+    <row r="503" spans="1:22">
       <c r="A503" t="s">
         <v>968</v>
       </c>
@@ -38769,7 +38759,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="504" spans="1:22" hidden="1">
+    <row r="504" spans="1:22">
       <c r="A504" t="s">
         <v>970</v>
       </c>
@@ -38837,7 +38827,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="505" spans="1:22" hidden="1">
+    <row r="505" spans="1:22">
       <c r="A505" t="s">
         <v>1333</v>
       </c>
@@ -38905,7 +38895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="506" spans="1:22" hidden="1">
+    <row r="506" spans="1:22">
       <c r="A506" t="s">
         <v>972</v>
       </c>
@@ -38973,7 +38963,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="507" spans="1:22" hidden="1">
+    <row r="507" spans="1:22">
       <c r="A507" t="s">
         <v>974</v>
       </c>
@@ -39041,7 +39031,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="508" spans="1:22" hidden="1">
+    <row r="508" spans="1:22">
       <c r="A508" t="s">
         <v>976</v>
       </c>
@@ -39109,7 +39099,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="509" spans="1:22" hidden="1">
+    <row r="509" spans="1:22">
       <c r="A509" t="s">
         <v>978</v>
       </c>
@@ -39177,7 +39167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="510" spans="1:22" hidden="1">
+    <row r="510" spans="1:22">
       <c r="A510" t="s">
         <v>980</v>
       </c>
@@ -39245,7 +39235,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="511" spans="1:22" hidden="1">
+    <row r="511" spans="1:22">
       <c r="A511" t="s">
         <v>982</v>
       </c>
@@ -39313,7 +39303,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="512" spans="1:22" hidden="1">
+    <row r="512" spans="1:22">
       <c r="A512" t="s">
         <v>984</v>
       </c>
@@ -39381,7 +39371,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="513" spans="1:22" hidden="1">
+    <row r="513" spans="1:22">
       <c r="A513" t="s">
         <v>985</v>
       </c>
@@ -39449,7 +39439,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="514" spans="1:22" hidden="1">
+    <row r="514" spans="1:22">
       <c r="A514" t="s">
         <v>987</v>
       </c>
@@ -39517,7 +39507,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="515" spans="1:22" hidden="1">
+    <row r="515" spans="1:22">
       <c r="A515" t="s">
         <v>989</v>
       </c>
@@ -39585,7 +39575,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="516" spans="1:22" hidden="1">
+    <row r="516" spans="1:22">
       <c r="A516" t="s">
         <v>991</v>
       </c>
@@ -39653,7 +39643,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="517" spans="1:22" hidden="1">
+    <row r="517" spans="1:22">
       <c r="A517" t="s">
         <v>992</v>
       </c>
@@ -39721,7 +39711,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="518" spans="1:22" hidden="1">
+    <row r="518" spans="1:22">
       <c r="A518" t="s">
         <v>994</v>
       </c>
@@ -39789,7 +39779,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="519" spans="1:22" hidden="1">
+    <row r="519" spans="1:22">
       <c r="A519" t="s">
         <v>996</v>
       </c>
@@ -39857,7 +39847,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="520" spans="1:22" hidden="1">
+    <row r="520" spans="1:22">
       <c r="A520" t="s">
         <v>997</v>
       </c>
@@ -39925,7 +39915,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="521" spans="1:22" hidden="1">
+    <row r="521" spans="1:22">
       <c r="A521" t="s">
         <v>999</v>
       </c>
@@ -39993,7 +39983,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="522" spans="1:22" hidden="1">
+    <row r="522" spans="1:22">
       <c r="A522" t="s">
         <v>1001</v>
       </c>
@@ -40061,7 +40051,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="523" spans="1:22" hidden="1">
+    <row r="523" spans="1:22">
       <c r="A523" t="s">
         <v>1003</v>
       </c>
@@ -40129,7 +40119,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="524" spans="1:22" hidden="1">
+    <row r="524" spans="1:22">
       <c r="A524" t="s">
         <v>1005</v>
       </c>
@@ -40197,7 +40187,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="525" spans="1:22" hidden="1">
+    <row r="525" spans="1:22">
       <c r="A525" t="s">
         <v>1007</v>
       </c>
@@ -40265,7 +40255,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="526" spans="1:22" hidden="1">
+    <row r="526" spans="1:22">
       <c r="A526" t="s">
         <v>1009</v>
       </c>
@@ -40333,7 +40323,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="527" spans="1:22" hidden="1">
+    <row r="527" spans="1:22">
       <c r="A527" t="s">
         <v>1011</v>
       </c>
@@ -40401,7 +40391,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="528" spans="1:22" hidden="1">
+    <row r="528" spans="1:22">
       <c r="A528" t="s">
         <v>1013</v>
       </c>
@@ -40469,7 +40459,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="529" spans="1:22" hidden="1">
+    <row r="529" spans="1:22">
       <c r="A529" t="s">
         <v>1015</v>
       </c>
@@ -40537,7 +40527,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="530" spans="1:22" hidden="1">
+    <row r="530" spans="1:22">
       <c r="A530" t="s">
         <v>1017</v>
       </c>
@@ -40605,7 +40595,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="531" spans="1:22" hidden="1">
+    <row r="531" spans="1:22">
       <c r="A531" t="s">
         <v>1019</v>
       </c>
@@ -40673,7 +40663,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="532" spans="1:22" hidden="1">
+    <row r="532" spans="1:22">
       <c r="A532" t="s">
         <v>1021</v>
       </c>
@@ -40741,7 +40731,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="533" spans="1:22" hidden="1">
+    <row r="533" spans="1:22">
       <c r="A533" t="s">
         <v>1023</v>
       </c>
@@ -40809,7 +40799,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="534" spans="1:22" hidden="1">
+    <row r="534" spans="1:22">
       <c r="A534" t="s">
         <v>1025</v>
       </c>
@@ -40877,7 +40867,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="535" spans="1:22" hidden="1">
+    <row r="535" spans="1:22">
       <c r="A535" t="s">
         <v>1027</v>
       </c>
@@ -40945,7 +40935,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="536" spans="1:22" hidden="1">
+    <row r="536" spans="1:22">
       <c r="A536" t="s">
         <v>1028</v>
       </c>
@@ -41013,7 +41003,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="537" spans="1:22" hidden="1">
+    <row r="537" spans="1:22">
       <c r="A537" t="s">
         <v>1030</v>
       </c>
@@ -41081,7 +41071,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="538" spans="1:22" hidden="1">
+    <row r="538" spans="1:22">
       <c r="A538" t="s">
         <v>1032</v>
       </c>
@@ -41149,7 +41139,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="539" spans="1:22" hidden="1">
+    <row r="539" spans="1:22">
       <c r="A539" t="s">
         <v>1033</v>
       </c>
@@ -41217,7 +41207,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="540" spans="1:22" hidden="1">
+    <row r="540" spans="1:22">
       <c r="A540" t="s">
         <v>1035</v>
       </c>
@@ -41285,7 +41275,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="541" spans="1:22" hidden="1">
+    <row r="541" spans="1:22">
       <c r="A541" t="s">
         <v>1037</v>
       </c>
@@ -41353,7 +41343,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="542" spans="1:22" hidden="1">
+    <row r="542" spans="1:22">
       <c r="A542" t="s">
         <v>1039</v>
       </c>
@@ -41421,7 +41411,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="543" spans="1:22" hidden="1">
+    <row r="543" spans="1:22">
       <c r="A543" t="s">
         <v>1041</v>
       </c>
@@ -41489,7 +41479,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="544" spans="1:22" hidden="1">
+    <row r="544" spans="1:22">
       <c r="A544" t="s">
         <v>1043</v>
       </c>
@@ -41557,7 +41547,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="545" spans="1:22" hidden="1">
+    <row r="545" spans="1:22">
       <c r="A545" t="s">
         <v>1045</v>
       </c>
@@ -41625,7 +41615,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="546" spans="1:22" hidden="1">
+    <row r="546" spans="1:22">
       <c r="A546" t="s">
         <v>1047</v>
       </c>
@@ -41693,7 +41683,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="547" spans="1:22" hidden="1">
+    <row r="547" spans="1:22">
       <c r="A547" t="s">
         <v>1049</v>
       </c>
@@ -41761,7 +41751,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="548" spans="1:22" hidden="1">
+    <row r="548" spans="1:22">
       <c r="A548" t="s">
         <v>1051</v>
       </c>
@@ -41829,7 +41819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="549" spans="1:22" hidden="1">
+    <row r="549" spans="1:22">
       <c r="A549" t="s">
         <v>1053</v>
       </c>
@@ -41897,7 +41887,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="550" spans="1:22" hidden="1">
+    <row r="550" spans="1:22">
       <c r="A550" t="s">
         <v>1055</v>
       </c>
@@ -41965,7 +41955,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="551" spans="1:22" hidden="1">
+    <row r="551" spans="1:22">
       <c r="A551" t="s">
         <v>1057</v>
       </c>
@@ -42033,7 +42023,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="552" spans="1:22" hidden="1">
+    <row r="552" spans="1:22">
       <c r="A552" t="s">
         <v>1059</v>
       </c>
@@ -42101,7 +42091,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="553" spans="1:22" hidden="1">
+    <row r="553" spans="1:22">
       <c r="A553" t="s">
         <v>1061</v>
       </c>
@@ -42169,7 +42159,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="554" spans="1:22" hidden="1">
+    <row r="554" spans="1:22">
       <c r="A554" t="s">
         <v>1063</v>
       </c>
@@ -42237,7 +42227,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="555" spans="1:22" hidden="1">
+    <row r="555" spans="1:22">
       <c r="A555" t="s">
         <v>1065</v>
       </c>
@@ -42305,7 +42295,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="556" spans="1:22" hidden="1">
+    <row r="556" spans="1:22">
       <c r="A556" t="s">
         <v>1067</v>
       </c>
@@ -42373,7 +42363,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="557" spans="1:22" hidden="1">
+    <row r="557" spans="1:22">
       <c r="A557" t="s">
         <v>1069</v>
       </c>
@@ -42441,7 +42431,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="558" spans="1:22" hidden="1">
+    <row r="558" spans="1:22">
       <c r="A558" t="s">
         <v>1071</v>
       </c>
@@ -42509,7 +42499,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="559" spans="1:22" hidden="1">
+    <row r="559" spans="1:22">
       <c r="A559" t="s">
         <v>1073</v>
       </c>
@@ -42577,7 +42567,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="560" spans="1:22" hidden="1">
+    <row r="560" spans="1:22">
       <c r="A560" t="s">
         <v>1075</v>
       </c>
@@ -42645,7 +42635,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="561" spans="1:22" hidden="1">
+    <row r="561" spans="1:22">
       <c r="A561" t="s">
         <v>1076</v>
       </c>
@@ -42713,7 +42703,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="562" spans="1:22" hidden="1">
+    <row r="562" spans="1:22">
       <c r="A562" t="s">
         <v>1344</v>
       </c>
@@ -42781,7 +42771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="563" spans="1:22" hidden="1">
+    <row r="563" spans="1:22">
       <c r="A563" t="s">
         <v>1078</v>
       </c>
@@ -42849,7 +42839,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="564" spans="1:22" hidden="1">
+    <row r="564" spans="1:22">
       <c r="A564" t="s">
         <v>1080</v>
       </c>
@@ -42917,7 +42907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="565" spans="1:22" hidden="1">
+    <row r="565" spans="1:22">
       <c r="A565" t="s">
         <v>1082</v>
       </c>
@@ -42985,7 +42975,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="566" spans="1:22" hidden="1">
+    <row r="566" spans="1:22">
       <c r="A566" t="s">
         <v>1084</v>
       </c>
@@ -43053,7 +43043,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="567" spans="1:22" hidden="1">
+    <row r="567" spans="1:22">
       <c r="A567" t="s">
         <v>1086</v>
       </c>
@@ -43121,7 +43111,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="568" spans="1:22" hidden="1">
+    <row r="568" spans="1:22">
       <c r="A568" t="s">
         <v>1088</v>
       </c>
@@ -43189,7 +43179,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="569" spans="1:22" hidden="1">
+    <row r="569" spans="1:22">
       <c r="A569" t="s">
         <v>1089</v>
       </c>
@@ -43257,7 +43247,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="570" spans="1:22" hidden="1">
+    <row r="570" spans="1:22">
       <c r="A570" t="s">
         <v>1091</v>
       </c>
@@ -43325,7 +43315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="571" spans="1:22" hidden="1">
+    <row r="571" spans="1:22">
       <c r="A571" t="s">
         <v>1093</v>
       </c>
@@ -43393,7 +43383,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="572" spans="1:22" hidden="1">
+    <row r="572" spans="1:22">
       <c r="A572" t="s">
         <v>1095</v>
       </c>
@@ -43461,7 +43451,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="573" spans="1:22" hidden="1">
+    <row r="573" spans="1:22">
       <c r="A573" t="s">
         <v>1097</v>
       </c>
@@ -43529,7 +43519,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="574" spans="1:22" hidden="1">
+    <row r="574" spans="1:22">
       <c r="A574" t="s">
         <v>1099</v>
       </c>
@@ -43597,7 +43587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="575" spans="1:22" hidden="1">
+    <row r="575" spans="1:22">
       <c r="A575" t="s">
         <v>1101</v>
       </c>
@@ -43665,7 +43655,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="576" spans="1:22" hidden="1">
+    <row r="576" spans="1:22">
       <c r="A576" t="s">
         <v>1103</v>
       </c>
@@ -43733,7 +43723,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="577" spans="1:22" hidden="1">
+    <row r="577" spans="1:22">
       <c r="A577" t="s">
         <v>1105</v>
       </c>
@@ -43801,7 +43791,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="578" spans="1:22" hidden="1">
+    <row r="578" spans="1:22">
       <c r="A578" t="s">
         <v>1107</v>
       </c>
@@ -43869,7 +43859,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="579" spans="1:22" hidden="1">
+    <row r="579" spans="1:22">
       <c r="A579" t="s">
         <v>1109</v>
       </c>
@@ -43937,7 +43927,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="580" spans="1:22" hidden="1">
+    <row r="580" spans="1:22">
       <c r="A580" t="s">
         <v>1111</v>
       </c>
@@ -44005,7 +43995,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="581" spans="1:22" hidden="1">
+    <row r="581" spans="1:22">
       <c r="A581" t="s">
         <v>1113</v>
       </c>
@@ -44073,7 +44063,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="582" spans="1:22" hidden="1">
+    <row r="582" spans="1:22">
       <c r="A582" t="s">
         <v>1115</v>
       </c>
@@ -44141,7 +44131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="583" spans="1:22" hidden="1">
+    <row r="583" spans="1:22">
       <c r="A583" t="s">
         <v>1117</v>
       </c>
@@ -44209,7 +44199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="584" spans="1:22" hidden="1">
+    <row r="584" spans="1:22">
       <c r="A584" t="s">
         <v>1119</v>
       </c>
@@ -44277,7 +44267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="585" spans="1:22" hidden="1">
+    <row r="585" spans="1:22">
       <c r="A585" t="s">
         <v>1121</v>
       </c>
@@ -44345,7 +44335,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="586" spans="1:22" hidden="1">
+    <row r="586" spans="1:22">
       <c r="A586" t="s">
         <v>1123</v>
       </c>
@@ -44413,7 +44403,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="587" spans="1:22" hidden="1">
+    <row r="587" spans="1:22">
       <c r="A587" t="s">
         <v>1125</v>
       </c>
@@ -44481,7 +44471,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="588" spans="1:22" hidden="1">
+    <row r="588" spans="1:22">
       <c r="A588" t="s">
         <v>1127</v>
       </c>
@@ -44549,7 +44539,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="589" spans="1:22" hidden="1">
+    <row r="589" spans="1:22">
       <c r="A589" t="s">
         <v>1129</v>
       </c>
@@ -44617,7 +44607,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="590" spans="1:22" hidden="1">
+    <row r="590" spans="1:22">
       <c r="A590" t="s">
         <v>1131</v>
       </c>
@@ -44685,7 +44675,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="591" spans="1:22" hidden="1">
+    <row r="591" spans="1:22">
       <c r="A591" t="s">
         <v>1133</v>
       </c>
@@ -44753,7 +44743,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="592" spans="1:22" hidden="1">
+    <row r="592" spans="1:22">
       <c r="A592" t="s">
         <v>1135</v>
       </c>
@@ -44821,7 +44811,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="593" spans="1:22" hidden="1">
+    <row r="593" spans="1:22">
       <c r="A593" t="s">
         <v>1137</v>
       </c>
@@ -44889,7 +44879,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="594" spans="1:22" hidden="1">
+    <row r="594" spans="1:22">
       <c r="A594" t="s">
         <v>1139</v>
       </c>
@@ -44957,7 +44947,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="595" spans="1:22" hidden="1">
+    <row r="595" spans="1:22">
       <c r="A595" t="s">
         <v>1141</v>
       </c>
@@ -45025,7 +45015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="596" spans="1:22" hidden="1">
+    <row r="596" spans="1:22">
       <c r="A596" t="s">
         <v>1143</v>
       </c>
@@ -45093,7 +45083,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="597" spans="1:22" hidden="1">
+    <row r="597" spans="1:22">
       <c r="A597" t="s">
         <v>1145</v>
       </c>
@@ -45161,7 +45151,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="598" spans="1:22" hidden="1">
+    <row r="598" spans="1:22">
       <c r="A598" t="s">
         <v>1147</v>
       </c>
@@ -45297,7 +45287,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="600" spans="1:22" hidden="1">
+    <row r="600" spans="1:22">
       <c r="A600" t="s">
         <v>1149</v>
       </c>
@@ -45365,7 +45355,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="601" spans="1:22" hidden="1">
+    <row r="601" spans="1:22">
       <c r="A601" t="s">
         <v>1151</v>
       </c>
@@ -45433,7 +45423,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="602" spans="1:22" hidden="1">
+    <row r="602" spans="1:22">
       <c r="A602" t="s">
         <v>1153</v>
       </c>
@@ -45501,7 +45491,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="603" spans="1:22" hidden="1">
+    <row r="603" spans="1:22">
       <c r="A603" t="s">
         <v>1155</v>
       </c>
@@ -45569,7 +45559,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="604" spans="1:22" hidden="1">
+    <row r="604" spans="1:22">
       <c r="A604" t="s">
         <v>1157</v>
       </c>
@@ -45637,7 +45627,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="605" spans="1:22" hidden="1">
+    <row r="605" spans="1:22">
       <c r="A605" t="s">
         <v>1159</v>
       </c>
@@ -45705,7 +45695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="606" spans="1:22" hidden="1">
+    <row r="606" spans="1:22">
       <c r="A606" t="s">
         <v>1161</v>
       </c>
@@ -45773,7 +45763,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="607" spans="1:22" hidden="1">
+    <row r="607" spans="1:22">
       <c r="A607" t="s">
         <v>1163</v>
       </c>
@@ -45841,7 +45831,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="608" spans="1:22" hidden="1">
+    <row r="608" spans="1:22">
       <c r="A608" t="s">
         <v>1165</v>
       </c>
@@ -45909,7 +45899,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="609" spans="1:22" hidden="1">
+    <row r="609" spans="1:22">
       <c r="A609" t="s">
         <v>1167</v>
       </c>
@@ -45977,7 +45967,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="610" spans="1:22" hidden="1">
+    <row r="610" spans="1:22">
       <c r="A610" t="s">
         <v>1169</v>
       </c>
@@ -46045,7 +46035,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="611" spans="1:22" hidden="1">
+    <row r="611" spans="1:22">
       <c r="A611" t="s">
         <v>1171</v>
       </c>
@@ -46113,7 +46103,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="612" spans="1:22" hidden="1">
+    <row r="612" spans="1:22">
       <c r="A612" t="s">
         <v>1173</v>
       </c>
@@ -46181,7 +46171,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="613" spans="1:22" hidden="1">
+    <row r="613" spans="1:22">
       <c r="A613" t="s">
         <v>1175</v>
       </c>
@@ -46249,7 +46239,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="614" spans="1:22" hidden="1">
+    <row r="614" spans="1:22">
       <c r="A614" t="s">
         <v>1177</v>
       </c>
@@ -46317,7 +46307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="615" spans="1:22" hidden="1">
+    <row r="615" spans="1:22">
       <c r="A615" t="s">
         <v>1179</v>
       </c>
@@ -46453,7 +46443,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="617" spans="1:22" hidden="1">
+    <row r="617" spans="1:22">
       <c r="A617" t="s">
         <v>1334</v>
       </c>
@@ -46521,7 +46511,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="618" spans="1:22" hidden="1">
+    <row r="618" spans="1:22">
       <c r="A618" t="s">
         <v>1181</v>
       </c>
@@ -46589,7 +46579,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="619" spans="1:22" hidden="1">
+    <row r="619" spans="1:22">
       <c r="A619" t="s">
         <v>1183</v>
       </c>
@@ -46657,7 +46647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="620" spans="1:22" hidden="1">
+    <row r="620" spans="1:22">
       <c r="A620" t="s">
         <v>1185</v>
       </c>
@@ -46725,7 +46715,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="621" spans="1:22" hidden="1">
+    <row r="621" spans="1:22">
       <c r="A621" t="s">
         <v>1187</v>
       </c>
@@ -46861,7 +46851,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="623" spans="1:22" hidden="1">
+    <row r="623" spans="1:22">
       <c r="A623" t="s">
         <v>1191</v>
       </c>
@@ -46929,7 +46919,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="624" spans="1:22" hidden="1">
+    <row r="624" spans="1:22">
       <c r="A624" t="s">
         <v>1193</v>
       </c>
@@ -46997,7 +46987,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="625" spans="1:22" hidden="1">
+    <row r="625" spans="1:22">
       <c r="A625" t="s">
         <v>1195</v>
       </c>
@@ -47065,7 +47055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="626" spans="1:22" hidden="1">
+    <row r="626" spans="1:22">
       <c r="A626" t="s">
         <v>1197</v>
       </c>
@@ -47133,7 +47123,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="627" spans="1:22" hidden="1">
+    <row r="627" spans="1:22">
       <c r="A627" t="s">
         <v>1199</v>
       </c>
@@ -47201,7 +47191,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="628" spans="1:22" hidden="1">
+    <row r="628" spans="1:22">
       <c r="A628" t="s">
         <v>1201</v>
       </c>
@@ -47269,7 +47259,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="629" spans="1:22" hidden="1">
+    <row r="629" spans="1:22">
       <c r="A629" t="s">
         <v>1203</v>
       </c>
@@ -47337,7 +47327,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="630" spans="1:22" hidden="1">
+    <row r="630" spans="1:22">
       <c r="A630" t="s">
         <v>1205</v>
       </c>
@@ -47405,7 +47395,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="631" spans="1:22" hidden="1">
+    <row r="631" spans="1:22">
       <c r="A631" t="s">
         <v>1207</v>
       </c>
@@ -47473,7 +47463,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="632" spans="1:22" hidden="1">
+    <row r="632" spans="1:22">
       <c r="A632" t="s">
         <v>1209</v>
       </c>
@@ -47541,7 +47531,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="633" spans="1:22" hidden="1">
+    <row r="633" spans="1:22">
       <c r="A633" t="s">
         <v>1211</v>
       </c>
@@ -47609,7 +47599,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="634" spans="1:22" hidden="1">
+    <row r="634" spans="1:22">
       <c r="A634" t="s">
         <v>1213</v>
       </c>
@@ -47677,7 +47667,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="635" spans="1:22" hidden="1">
+    <row r="635" spans="1:22">
       <c r="A635" t="s">
         <v>1215</v>
       </c>
@@ -47745,7 +47735,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="636" spans="1:22" hidden="1">
+    <row r="636" spans="1:22">
       <c r="A636" t="s">
         <v>1217</v>
       </c>
@@ -47813,7 +47803,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="637" spans="1:22" hidden="1">
+    <row r="637" spans="1:22">
       <c r="A637" t="s">
         <v>1219</v>
       </c>
@@ -47881,7 +47871,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="638" spans="1:22" hidden="1">
+    <row r="638" spans="1:22">
       <c r="A638" t="s">
         <v>1221</v>
       </c>
@@ -47949,7 +47939,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="639" spans="1:22" hidden="1">
+    <row r="639" spans="1:22">
       <c r="A639" t="s">
         <v>1223</v>
       </c>
@@ -48017,7 +48007,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="640" spans="1:22" hidden="1">
+    <row r="640" spans="1:22">
       <c r="A640" t="s">
         <v>1225</v>
       </c>
@@ -48085,7 +48075,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="641" spans="1:22" hidden="1">
+    <row r="641" spans="1:22">
       <c r="A641" t="s">
         <v>1227</v>
       </c>
@@ -48153,7 +48143,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="642" spans="1:22" hidden="1">
+    <row r="642" spans="1:22">
       <c r="A642" t="s">
         <v>1229</v>
       </c>
@@ -48221,7 +48211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="643" spans="1:22" hidden="1">
+    <row r="643" spans="1:22">
       <c r="A643" t="s">
         <v>1231</v>
       </c>
@@ -48289,7 +48279,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="644" spans="1:22" hidden="1">
+    <row r="644" spans="1:22">
       <c r="A644" t="s">
         <v>1233</v>
       </c>
@@ -48357,7 +48347,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="645" spans="1:22" hidden="1">
+    <row r="645" spans="1:22">
       <c r="A645" t="s">
         <v>1235</v>
       </c>
@@ -48425,7 +48415,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="646" spans="1:22" hidden="1">
+    <row r="646" spans="1:22">
       <c r="A646" t="s">
         <v>1237</v>
       </c>
@@ -48493,7 +48483,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="647" spans="1:22" hidden="1">
+    <row r="647" spans="1:22">
       <c r="A647" t="s">
         <v>1239</v>
       </c>
@@ -48561,7 +48551,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="648" spans="1:22" hidden="1">
+    <row r="648" spans="1:22">
       <c r="A648" t="s">
         <v>1241</v>
       </c>
@@ -48629,7 +48619,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="649" spans="1:22" hidden="1">
+    <row r="649" spans="1:22">
       <c r="A649" t="s">
         <v>1243</v>
       </c>
@@ -48697,7 +48687,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="650" spans="1:22" hidden="1">
+    <row r="650" spans="1:22">
       <c r="A650" t="s">
         <v>1245</v>
       </c>
@@ -48765,7 +48755,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="651" spans="1:22" hidden="1">
+    <row r="651" spans="1:22">
       <c r="A651" t="s">
         <v>1247</v>
       </c>
@@ -48833,7 +48823,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="652" spans="1:22" hidden="1">
+    <row r="652" spans="1:22">
       <c r="A652" t="s">
         <v>1249</v>
       </c>
@@ -48901,7 +48891,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="653" spans="1:22" hidden="1">
+    <row r="653" spans="1:22">
       <c r="A653" t="s">
         <v>1251</v>
       </c>
@@ -48969,7 +48959,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="654" spans="1:22" hidden="1">
+    <row r="654" spans="1:22">
       <c r="A654" t="s">
         <v>1253</v>
       </c>
@@ -49037,7 +49027,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="655" spans="1:22" hidden="1">
+    <row r="655" spans="1:22">
       <c r="A655" t="s">
         <v>1255</v>
       </c>
@@ -49105,7 +49095,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="656" spans="1:22" hidden="1">
+    <row r="656" spans="1:22">
       <c r="A656" t="s">
         <v>1257</v>
       </c>
@@ -49173,7 +49163,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="657" spans="1:22" hidden="1">
+    <row r="657" spans="1:22">
       <c r="A657" t="s">
         <v>1259</v>
       </c>
@@ -49241,7 +49231,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="658" spans="1:22" hidden="1">
+    <row r="658" spans="1:22">
       <c r="A658" t="s">
         <v>1261</v>
       </c>
@@ -49309,7 +49299,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="659" spans="1:22" hidden="1">
+    <row r="659" spans="1:22">
       <c r="A659" t="s">
         <v>1263</v>
       </c>
@@ -49377,7 +49367,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="660" spans="1:22" hidden="1">
+    <row r="660" spans="1:22">
       <c r="A660" t="s">
         <v>1265</v>
       </c>
@@ -49445,7 +49435,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="661" spans="1:22" hidden="1">
+    <row r="661" spans="1:22">
       <c r="A661" t="s">
         <v>1267</v>
       </c>
@@ -49513,7 +49503,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="662" spans="1:22" hidden="1">
+    <row r="662" spans="1:22">
       <c r="A662" t="s">
         <v>1269</v>
       </c>
@@ -49581,7 +49571,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="663" spans="1:22" hidden="1">
+    <row r="663" spans="1:22">
       <c r="A663" t="s">
         <v>1271</v>
       </c>
@@ -49649,7 +49639,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="664" spans="1:22" hidden="1">
+    <row r="664" spans="1:22">
       <c r="A664" t="s">
         <v>1273</v>
       </c>
@@ -49717,7 +49707,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="665" spans="1:22" hidden="1">
+    <row r="665" spans="1:22">
       <c r="A665" t="s">
         <v>1275</v>
       </c>
@@ -49785,7 +49775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="666" spans="1:22" hidden="1">
+    <row r="666" spans="1:22">
       <c r="A666" t="s">
         <v>1277</v>
       </c>
@@ -49853,7 +49843,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="667" spans="1:22" hidden="1">
+    <row r="667" spans="1:22">
       <c r="A667" t="s">
         <v>1279</v>
       </c>
@@ -49921,7 +49911,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="668" spans="1:22" hidden="1">
+    <row r="668" spans="1:22">
       <c r="A668" t="s">
         <v>1281</v>
       </c>
@@ -49989,7 +49979,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="669" spans="1:22" hidden="1">
+    <row r="669" spans="1:22">
       <c r="A669" t="s">
         <v>1283</v>
       </c>
@@ -50057,7 +50047,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="670" spans="1:22" hidden="1">
+    <row r="670" spans="1:22">
       <c r="A670" t="s">
         <v>1285</v>
       </c>
@@ -50125,7 +50115,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="671" spans="1:22" hidden="1">
+    <row r="671" spans="1:22">
       <c r="A671" t="s">
         <v>1287</v>
       </c>
@@ -50193,7 +50183,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="672" spans="1:22" hidden="1">
+    <row r="672" spans="1:22">
       <c r="A672" t="s">
         <v>1289</v>
       </c>
@@ -50261,7 +50251,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="673" spans="1:22" hidden="1">
+    <row r="673" spans="1:22">
       <c r="A673" t="s">
         <v>1291</v>
       </c>
@@ -50329,7 +50319,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="674" spans="1:22" hidden="1">
+    <row r="674" spans="1:22">
       <c r="A674" t="s">
         <v>1293</v>
       </c>
@@ -50397,7 +50387,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="675" spans="1:22" hidden="1">
+    <row r="675" spans="1:22">
       <c r="A675" t="s">
         <v>1295</v>
       </c>
@@ -50465,7 +50455,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="676" spans="1:22" hidden="1">
+    <row r="676" spans="1:22">
       <c r="A676" t="s">
         <v>1297</v>
       </c>
@@ -50533,7 +50523,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="677" spans="1:22" hidden="1">
+    <row r="677" spans="1:22">
       <c r="A677" t="s">
         <v>1331</v>
       </c>
@@ -50601,7 +50591,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="678" spans="1:22" hidden="1">
+    <row r="678" spans="1:22">
       <c r="A678" t="s">
         <v>1299</v>
       </c>
@@ -50669,7 +50659,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="679" spans="1:22" hidden="1">
+    <row r="679" spans="1:22">
       <c r="A679" t="s">
         <v>1301</v>
       </c>
@@ -50737,7 +50727,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="680" spans="1:22" hidden="1">
+    <row r="680" spans="1:22">
       <c r="A680" t="s">
         <v>1303</v>
       </c>
@@ -50805,7 +50795,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="681" spans="1:22" hidden="1">
+    <row r="681" spans="1:22">
       <c r="A681" t="s">
         <v>1305</v>
       </c>
@@ -50873,7 +50863,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="682" spans="1:22" hidden="1">
+    <row r="682" spans="1:22">
       <c r="A682" t="s">
         <v>1307</v>
       </c>
@@ -50941,7 +50931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="683" spans="1:22" hidden="1">
+    <row r="683" spans="1:22">
       <c r="A683" t="s">
         <v>1309</v>
       </c>
@@ -51010,11 +51000,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V683">
-    <filterColumn colId="2">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V683"/>
   <sortState ref="A2:W683">
     <sortCondition ref="A6"/>
   </sortState>
